--- a/AAII_Financials/Quarterly/BHP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BHP_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
   <si>
     <t>BHP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,91 +665,97 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="14" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43646</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43281</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42916</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42551</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42369</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42185</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>22294000</v>
+      </c>
+      <c r="E8" s="3">
         <v>23546000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>20742000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>22603000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>20526000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>16944000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>18796000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>12855000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>15712000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>19776000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>24860000</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -783,8 +789,11 @@
       <c r="M9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -818,8 +827,11 @@
       <c r="M10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -833,8 +845,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -868,8 +881,11 @@
       <c r="M12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -903,31 +919,34 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>40000</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -938,8 +957,11 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -973,8 +995,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -985,78 +1010,85 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>13980000</v>
+      </c>
+      <c r="E17" s="3">
         <v>14766000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>13409000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>13772000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>13361000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>10447000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>12739000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3021000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>22742000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>19036000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>16930000</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>8314000</v>
+      </c>
+      <c r="E18" s="3">
         <v>8780000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>7333000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>8831000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>7165000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>6497000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>6057000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>9834000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-7030000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>740000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>7930000</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1070,183 +1102,199 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-38000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-10000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>41000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-27000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-130000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-295000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-72000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-175000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-41000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-140000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-71000</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>11290000</v>
+      </c>
+      <c r="E21" s="3">
         <v>11711000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>10262000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>11886000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>10241000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>8586000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>9785000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>11267000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-2469000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>5357000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>12260000</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>486000</v>
+      </c>
+      <c r="E22" s="3">
         <v>521000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>574000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>560000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>528000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>545000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>505000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>409000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>388000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>240000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>163000</v>
       </c>
     </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>7790000</v>
+      </c>
+      <c r="E23" s="3">
         <v>8249000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>6800000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>8244000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>6507000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>5657000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>5480000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>9250000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-7459000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>360000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>7696000</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2600000</v>
+      </c>
+      <c r="E24" s="3">
         <v>3171000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>2358000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>2906000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1781000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>2415000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>2028000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>3829000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-1726000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>362000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>3304000</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1280,78 +1328,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>5190000</v>
+      </c>
+      <c r="E26" s="3">
         <v>5078000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>4442000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>5338000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>4726000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>3242000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>3452000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>5421000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-5733000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>4392000</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>4868000</v>
+      </c>
+      <c r="E27" s="3">
         <v>4584000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>4057000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>4779000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>4167000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>3158000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>3204000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>5179000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-5669000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-442000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>3864000</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1385,43 +1442,49 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
         <v>-42000</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>-293000</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>-6010000</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>-2152000</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>-472000</v>
       </c>
-      <c r="I29" s="3" t="s">
+      <c r="J29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-5895000</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>-1913000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>401000</v>
       </c>
     </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1455,8 +1518,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1490,78 +1556,87 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>38000</v>
+      </c>
+      <c r="E32" s="3">
         <v>10000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-41000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>27000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>130000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>295000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>72000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>175000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>41000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>140000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>71000</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>4868000</v>
+      </c>
+      <c r="E33" s="3">
         <v>4542000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>3764000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1231000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>2015000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>2686000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>3204000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-716000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-5669000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2355000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>4265000</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1595,83 +1670,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>4868000</v>
+      </c>
+      <c r="E35" s="3">
         <v>4542000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>3764000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1231000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>2015000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>2686000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>3204000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-716000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-5669000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2355000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>4265000</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43646</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43281</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42916</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42551</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42369</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42185</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1685,8 +1769,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1700,323 +1785,351 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>14321000</v>
+      </c>
+      <c r="E41" s="3">
         <v>15613000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>15575000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>15871000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>12322000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>14153000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>13987000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>10319000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>10626000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>6753000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>6130000</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>54000</v>
+      </c>
+      <c r="E42" s="3">
         <v>87000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>237000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>200000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>51000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>72000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>103000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>121000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>75000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>83000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>81000</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3732000</v>
+      </c>
+      <c r="E43" s="3">
         <v>3586000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>6487000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>3202000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>3639000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>3031000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>3781000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>3722000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3579000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4979000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>6214000</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>3939000</v>
+      </c>
+      <c r="E44" s="3">
         <v>3840000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>3972000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>3764000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>4020000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>3673000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>3499000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>3411000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3914000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>4292000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>6149000</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>200000</v>
+      </c>
+      <c r="E45" s="3">
         <v>247000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>136000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>12093000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>111000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>127000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>131000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>141000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>189000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>262000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>327000</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>22246000</v>
+      </c>
+      <c r="E46" s="3">
         <v>23373000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>26407000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>35130000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>20143000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>21056000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>21501000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>17714000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>18383000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>16369000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>18901000</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>4156000</v>
+      </c>
+      <c r="E47" s="3">
         <v>4185000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>3663000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>3652000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>4276000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>4532000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>4460000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>6122000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>5054000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>6370000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>7416000</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>70196000</v>
+      </c>
+      <c r="E48" s="3">
         <v>68041000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>66673000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>67182000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>78849000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>80497000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>82170000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>83975000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>85439000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>94072000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>108771000</v>
       </c>
     </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>670000</v>
+      </c>
+      <c r="E49" s="3">
         <v>675000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>718000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>778000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3873000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3968000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>4030000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>4119000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4214000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4292000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>5289000</v>
       </c>
     </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2050,8 +2163,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2085,43 +2201,49 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>5022000</v>
+      </c>
+      <c r="E52" s="3">
         <v>4587000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>4953000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>5251000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>5441000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>6953000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>7374000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>7023000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>5579000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3477000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>5704000</v>
       </c>
     </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2155,43 +2277,49 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>102290000</v>
+      </c>
+      <c r="E54" s="3">
         <v>100861000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>102414000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>111993000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>112582000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>117006000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>119535000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>118953000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>118669000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>124580000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>146081000</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2205,8 +2333,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2220,218 +2349,237 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5798000</v>
+      </c>
+      <c r="E57" s="3">
         <v>6717000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>5616000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>5977000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>5999000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>5551000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>5128000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>5389000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5678000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>7389000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>8338000</v>
       </c>
     </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>4273000</v>
+      </c>
+      <c r="E58" s="3">
         <v>1661000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1527000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>2736000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2033000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1241000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>3374000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>4653000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4071000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3201000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2459000</v>
       </c>
     </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3691000</v>
+      </c>
+      <c r="E59" s="3">
         <v>3961000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3225000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>5276000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3498000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4574000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3497000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2298000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1889000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2263000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2553000</v>
       </c>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>13762000</v>
+      </c>
+      <c r="E60" s="3">
         <v>12339000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>10368000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>13989000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>11530000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>11366000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>11999000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>12340000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>11638000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>12853000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>13350000</v>
       </c>
     </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>22535000</v>
+      </c>
+      <c r="E61" s="3">
         <v>23167000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>23938000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>24069000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>25700000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>29233000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>30670000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>31768000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>32476000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>27969000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>28610000</v>
       </c>
     </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>13575000</v>
+      </c>
+      <c r="E62" s="3">
         <v>13531000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>12792000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>13265000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>13191000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>13681000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>14441000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>14774000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>13125000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>13213000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>17871000</v>
       </c>
     </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2465,8 +2613,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2500,8 +2651,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2535,43 +2689,49 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>54168000</v>
+      </c>
+      <c r="E66" s="3">
         <v>53621000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>51767000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>56401000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>55605000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>59748000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>62886000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>64663000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>62883000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>59812000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>66236000</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2585,8 +2745,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2620,8 +2781,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2655,8 +2819,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2690,8 +2857,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2725,43 +2895,49 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>45968000</v>
+      </c>
+      <c r="E72" s="3">
         <v>45104000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>48495000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>53354000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>54742000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>55018000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>54417000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>52080000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>53585000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>62601000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>77832000</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2795,8 +2971,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2830,8 +3009,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2865,43 +3047,49 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>48122000</v>
+      </c>
+      <c r="E76" s="3">
         <v>47240000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>50647000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>55592000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>56977000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>57258000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>56649000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>54290000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>55786000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>64768000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>79845000</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2935,83 +3123,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43646</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43281</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42916</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42551</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42369</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42185</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>4868000</v>
+      </c>
+      <c r="E81" s="3">
         <v>4542000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>3764000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1231000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>2015000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>2686000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>3204000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-716000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-5669000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2355000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>4265000</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3025,43 +3222,47 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>3014000</v>
+      </c>
+      <c r="E83" s="3">
         <v>2941000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>2888000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>2251000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>4037000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>3919000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>3800000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>4059000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>4602000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>4757000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>4401000</v>
       </c>
     </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3095,8 +3296,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3130,8 +3334,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3165,8 +3372,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3200,8 +3410,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3235,43 +3448,49 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>7442000</v>
+      </c>
+      <c r="E89" s="3">
         <v>10597000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>7274000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>11118000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>7343000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>9107000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>7697000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>5365000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>5260000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>8873000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>10423000</v>
       </c>
     </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3285,43 +3504,47 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-390000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-476000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-397000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-410000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-464000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-527000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-439000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-342000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-410000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>807000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-13668000</v>
       </c>
     </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3355,8 +3578,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3390,43 +3616,49 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3732000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-723000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>3330000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-3475000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-2446000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2239000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1922000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-3207000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-4038000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-6837000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-6317000</v>
       </c>
     </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3440,43 +3672,47 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-3934000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-7984000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-3411000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-2944000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-2276000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-2173000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-748000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-864000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-3266000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-3289000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-3209000</v>
       </c>
     </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3510,8 +3746,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3545,8 +3784,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3580,109 +3822,121 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-5000000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-9430000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-11098000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-3832000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-7059000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-7009000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-2124000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-2454000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>2738000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1517000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-6759000</v>
       </c>
     </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E101" s="3">
         <v>50000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-220000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-275000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>331000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>321000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>1000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-10000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>9000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-24000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>19000</v>
       </c>
     </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1272000</v>
+      </c>
+      <c r="E102" s="3">
         <v>494000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-714000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>3536000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1831000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>180000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>3652000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-306000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>3969000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>495000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-2634000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BHP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BHP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
   <si>
     <t>BHP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,97 +665,103 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="14" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="15" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43281</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42916</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42735</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42551</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42369</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42185</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>20637000</v>
+      </c>
+      <c r="E8" s="3">
         <v>22294000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>23546000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>20742000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>22603000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>20526000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>16944000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>18796000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>12855000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>15712000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>19776000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>24860000</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -792,8 +798,11 @@
       <c r="N9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -830,8 +839,11 @@
       <c r="N10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -846,8 +858,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -884,8 +897,11 @@
       <c r="N12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -922,16 +938,19 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-529000</v>
+      </c>
+      <c r="E14" s="3">
         <v>40000</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>5</v>
@@ -948,8 +967,8 @@
       <c r="J14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -960,8 +979,11 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -998,8 +1020,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1011,84 +1036,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>14530000</v>
+      </c>
+      <c r="E17" s="3">
         <v>13980000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>14766000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>13409000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>13772000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>13361000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>10447000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>12739000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3021000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>22742000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>19036000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>16930000</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>6107000</v>
+      </c>
+      <c r="E18" s="3">
         <v>8314000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>8780000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>7333000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>8831000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>7165000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>6497000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>6057000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>9834000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-7030000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>740000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>7930000</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1103,198 +1135,214 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-38000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-10000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>41000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-27000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-130000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-295000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-72000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-175000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-41000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-140000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-71000</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>9213000</v>
+      </c>
+      <c r="E21" s="3">
         <v>11290000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>11711000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>10262000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>11886000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>10241000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>8586000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>9785000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>11267000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-2469000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>5357000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>12260000</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>395000</v>
+      </c>
+      <c r="E22" s="3">
         <v>486000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>521000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>574000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>560000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>528000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>545000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>505000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>409000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>388000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>240000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>163000</v>
       </c>
     </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>5720000</v>
+      </c>
+      <c r="E23" s="3">
         <v>7790000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>8249000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>6800000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>8244000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>6507000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>5657000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>5480000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>9250000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-7459000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>360000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>7696000</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2174000</v>
+      </c>
+      <c r="E24" s="3">
         <v>2600000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>3171000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>2358000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>2906000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1781000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>2415000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>2028000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>3829000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-1726000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>362000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>3304000</v>
       </c>
     </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1331,84 +1379,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>3546000</v>
+      </c>
+      <c r="E26" s="3">
         <v>5190000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>5078000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>4442000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>5338000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>4726000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>3242000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>3452000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>5421000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-5733000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>4392000</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>3088000</v>
+      </c>
+      <c r="E27" s="3">
         <v>4868000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>4584000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>4057000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>4779000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>4167000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>3158000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>3204000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>5179000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-5669000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-442000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>3864000</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1445,8 +1502,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1454,37 +1514,40 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
         <v>-42000</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>-293000</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>-6010000</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>-2152000</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-472000</v>
       </c>
-      <c r="J29" s="3" t="s">
+      <c r="K29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-5895000</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>-1913000</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>401000</v>
       </c>
     </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1521,8 +1584,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1559,84 +1625,93 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="E32" s="3">
         <v>38000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>10000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-41000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>27000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>130000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>295000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>72000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>175000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>41000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>140000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>71000</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>3088000</v>
+      </c>
+      <c r="E33" s="3">
         <v>4868000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>4542000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>3764000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1231000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>2015000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2686000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>3204000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-716000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-5669000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2355000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>4265000</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1673,89 +1748,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>3088000</v>
+      </c>
+      <c r="E35" s="3">
         <v>4868000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>4542000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>3764000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1231000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>2015000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>2686000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>3204000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-716000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-5669000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2355000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>4265000</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43281</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42916</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42735</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42551</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42369</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42185</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1770,8 +1854,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1786,350 +1871,378 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>13426000</v>
+      </c>
+      <c r="E41" s="3">
         <v>14321000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>15613000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>15575000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>15871000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>12322000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>14153000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>13987000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>10319000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>10626000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>6753000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>6130000</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>84000</v>
+      </c>
+      <c r="E42" s="3">
         <v>54000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>87000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>237000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>200000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>51000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>72000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>103000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>121000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>75000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>83000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>81000</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3730000</v>
+      </c>
+      <c r="E43" s="3">
         <v>3732000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>3586000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>6487000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>3202000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>3639000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>3031000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>3781000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3722000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3579000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>4979000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>6214000</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>4101000</v>
+      </c>
+      <c r="E44" s="3">
         <v>3939000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>3840000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>3972000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>3764000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>4020000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>3673000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>3499000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3411000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3914000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>4292000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>6149000</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>130000</v>
+      </c>
+      <c r="E45" s="3">
         <v>200000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>247000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>136000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>12093000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>111000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>127000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>131000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>141000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>189000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>262000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>327000</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>21471000</v>
+      </c>
+      <c r="E46" s="3">
         <v>22246000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>23373000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>26407000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>35130000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>20143000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>21056000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>21501000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>17714000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>18383000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>16369000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>18901000</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>5374000</v>
+      </c>
+      <c r="E47" s="3">
         <v>4156000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>4185000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>3663000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>3652000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>4276000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>4532000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>4460000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>6122000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>5054000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>6370000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>7416000</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>72362000</v>
+      </c>
+      <c r="E48" s="3">
         <v>70196000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>68041000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>66673000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>67182000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>78849000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>80497000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>82170000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>83975000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>85439000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>94072000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>108771000</v>
       </c>
     </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>624000</v>
+      </c>
+      <c r="E49" s="3">
         <v>670000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>675000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>718000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>778000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3873000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3968000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>4030000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4119000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4214000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>4292000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>5289000</v>
       </c>
     </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2166,8 +2279,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2204,46 +2320,52 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>4952000</v>
+      </c>
+      <c r="E52" s="3">
         <v>5022000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>4587000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>4953000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>5251000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>5441000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>6953000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>7374000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>7023000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>5579000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3477000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>5704000</v>
       </c>
     </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2280,46 +2402,52 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>104783000</v>
+      </c>
+      <c r="E54" s="3">
         <v>102290000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>100861000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>102414000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>111993000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>112582000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>117006000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>119535000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>118953000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>118669000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>124580000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>146081000</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2334,8 +2462,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2350,236 +2479,255 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5767000</v>
+      </c>
+      <c r="E57" s="3">
         <v>5798000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>6717000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>5616000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>5977000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>5999000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>5551000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>5128000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5389000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>5678000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>7389000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>8338000</v>
       </c>
     </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>5012000</v>
+      </c>
+      <c r="E58" s="3">
         <v>4273000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1661000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1527000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2736000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>2033000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1241000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>3374000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4653000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>4071000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3201000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2459000</v>
       </c>
     </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4045000</v>
+      </c>
+      <c r="E59" s="3">
         <v>3691000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3961000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3225000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>5276000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3498000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4574000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3497000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2298000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1889000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2263000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2553000</v>
       </c>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>14824000</v>
+      </c>
+      <c r="E60" s="3">
         <v>13762000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>12339000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>10368000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>13989000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>11530000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>11366000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>11999000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>12340000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>11638000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>12853000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>13350000</v>
       </c>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>22036000</v>
+      </c>
+      <c r="E61" s="3">
         <v>22535000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>23167000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>23938000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>24069000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>25700000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>29233000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>30670000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>31768000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>32476000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>27969000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>28610000</v>
       </c>
     </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>15677000</v>
+      </c>
+      <c r="E62" s="3">
         <v>13575000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>13531000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>12792000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>13265000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>13191000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>13681000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>14441000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>14774000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>13125000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>13213000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>17871000</v>
       </c>
     </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2616,8 +2764,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2654,8 +2805,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2692,46 +2846,52 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>56847000</v>
+      </c>
+      <c r="E66" s="3">
         <v>54168000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>53621000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>51767000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>56401000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>55605000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>59748000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>62886000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>64663000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>62883000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>59812000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>66236000</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2746,8 +2906,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2784,8 +2945,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2822,8 +2986,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2860,8 +3027,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2898,46 +3068,52 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>45773000</v>
+      </c>
+      <c r="E72" s="3">
         <v>45968000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>45104000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>48495000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>53354000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>54742000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>55018000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>54417000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>52080000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>53585000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>62601000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>77832000</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2974,8 +3150,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3012,8 +3191,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3050,46 +3232,52 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>47936000</v>
+      </c>
+      <c r="E76" s="3">
         <v>48122000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>47240000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>50647000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>55592000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>56977000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>57258000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>56649000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>54290000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>55786000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>64768000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>79845000</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3126,89 +3314,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43281</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42916</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42735</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42551</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42369</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42185</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>3088000</v>
+      </c>
+      <c r="E81" s="3">
         <v>4868000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>4542000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>3764000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1231000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>2015000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>2686000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>3204000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-716000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-5669000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2355000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>4265000</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3223,46 +3420,50 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>3098000</v>
+      </c>
+      <c r="E83" s="3">
         <v>3014000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>2941000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>2888000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>2251000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>4037000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>3919000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>3800000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>4059000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>4602000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>4757000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>4401000</v>
       </c>
     </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3299,8 +3500,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3337,8 +3541,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3375,8 +3582,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3413,8 +3623,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3451,46 +3664,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>8264000</v>
+      </c>
+      <c r="E89" s="3">
         <v>7442000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>10597000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>7274000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>11118000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>7343000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>9107000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>7697000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>5365000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>5260000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>8873000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>10423000</v>
       </c>
     </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3505,46 +3724,50 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-350000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-390000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-476000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-397000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-410000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-464000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-527000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-439000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-342000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-410000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>807000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-13668000</v>
       </c>
     </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3581,8 +3804,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3619,46 +3845,52 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3884000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-3732000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-723000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>3330000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-3475000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2446000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2239000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1922000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3207000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-4038000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-6837000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-6317000</v>
       </c>
     </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3673,46 +3905,50 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-2942000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-3934000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-7984000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-3411000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-2944000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-2276000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-2173000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-748000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-864000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-3266000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-3289000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-3209000</v>
       </c>
     </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3749,8 +3985,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3787,8 +4026,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3825,118 +4067,130 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-4752000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-5000000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-9430000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-11098000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-3832000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-7059000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-7009000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-2124000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2454000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>2738000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1517000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-6759000</v>
       </c>
     </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-523000</v>
+      </c>
+      <c r="E101" s="3">
         <v>18000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>50000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-220000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-275000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>331000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>321000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>1000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-10000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>9000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-24000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>19000</v>
       </c>
     </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-895000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1272000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>494000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-714000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>3536000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1831000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>180000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>3652000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-306000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>3969000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>495000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-2634000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BHP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BHP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
   <si>
     <t>BHP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,103 +665,109 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="15" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="16" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43281</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43100</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42916</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42735</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42551</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42369</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42185</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>25639000</v>
+      </c>
+      <c r="E8" s="3">
         <v>20637000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>22294000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>23546000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>20742000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>22603000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>20526000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>16944000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>18796000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>12855000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>15712000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>19776000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>24860000</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -801,8 +807,11 @@
       <c r="O9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -842,8 +851,11 @@
       <c r="O10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -859,8 +871,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -900,8 +913,11 @@
       <c r="O12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -941,20 +957,23 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>-529000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>40000</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>5</v>
       </c>
@@ -970,8 +989,8 @@
       <c r="K14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -982,8 +1001,11 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1023,8 +1045,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1037,90 +1062,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>15889000</v>
+      </c>
+      <c r="E17" s="3">
         <v>14530000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>13980000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>14766000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>13409000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>13772000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>13361000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>10447000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>12739000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3021000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>22742000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>19036000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>16930000</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>9750000</v>
+      </c>
+      <c r="E18" s="3">
         <v>6107000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>8314000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>8780000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>7333000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>8831000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>7165000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>6497000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>6057000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>9834000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-7030000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>740000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>7930000</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1136,213 +1168,229 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-670000</v>
+      </c>
+      <c r="E20" s="3">
         <v>8000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-38000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-10000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>41000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-27000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-130000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-295000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-72000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-175000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-41000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-140000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-71000</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>12325000</v>
+      </c>
+      <c r="E21" s="3">
         <v>9213000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>11290000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>11711000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>10262000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>11886000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>10241000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>8586000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>9785000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>11267000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-2469000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>5357000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>12260000</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>254000</v>
+      </c>
+      <c r="E22" s="3">
         <v>395000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>486000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>521000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>574000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>560000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>528000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>545000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>505000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>409000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>388000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>240000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>163000</v>
       </c>
     </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>8826000</v>
+      </c>
+      <c r="E23" s="3">
         <v>5720000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>7790000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>8249000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>6800000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>8244000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>6507000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>5657000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>5480000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>9250000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-7459000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>360000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>7696000</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>3998000</v>
+      </c>
+      <c r="E24" s="3">
         <v>2174000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>2600000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>3171000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>2358000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>2906000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1781000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>2415000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2028000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>3829000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-1726000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>362000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>3304000</v>
       </c>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1382,90 +1430,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>4828000</v>
+      </c>
+      <c r="E26" s="3">
         <v>3546000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>5190000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>5078000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>4442000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>5338000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>4726000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>3242000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>3452000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>5421000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-5733000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>4392000</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>3876000</v>
+      </c>
+      <c r="E27" s="3">
         <v>3088000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>4868000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>4584000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>4057000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>4779000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>4167000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>3158000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>3204000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>5179000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-5669000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-442000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>3864000</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1505,49 +1562,55 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
       </c>
       <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
         <v>-42000</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>-293000</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>-6010000</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-2152000</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-472000</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L29" s="3">
+      <c r="L29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M29" s="3">
         <v>-5895000</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
       <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>-1913000</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>401000</v>
       </c>
     </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1587,8 +1650,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1628,90 +1694,99 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>670000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-8000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>38000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>10000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-41000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>27000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>130000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>295000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>72000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>175000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>41000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>140000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>71000</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>3876000</v>
+      </c>
+      <c r="E33" s="3">
         <v>3088000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>4868000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>4542000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>3764000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1231000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2015000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>2686000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>3204000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-716000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-5669000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2355000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>4265000</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1751,95 +1826,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>3876000</v>
+      </c>
+      <c r="E35" s="3">
         <v>3088000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>4868000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>4542000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>3764000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1231000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>2015000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>2686000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>3204000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-716000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-5669000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2355000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>4265000</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43281</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43100</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42916</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42735</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42551</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42369</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42185</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1855,8 +1939,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1872,377 +1957,405 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>9291000</v>
+      </c>
+      <c r="E41" s="3">
         <v>13426000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>14321000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>15613000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>15575000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>15871000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>12322000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>14153000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>13987000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>10319000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>10626000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>6753000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>6130000</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>227000</v>
+      </c>
+      <c r="E42" s="3">
         <v>84000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>54000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>87000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>237000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>200000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>51000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>72000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>103000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>121000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>75000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>83000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>81000</v>
       </c>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4868000</v>
+      </c>
+      <c r="E43" s="3">
         <v>3730000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>3732000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>3586000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>6487000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>3202000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>3639000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>3031000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3781000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3722000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3579000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>4979000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>6214000</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>4511000</v>
+      </c>
+      <c r="E44" s="3">
         <v>4101000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>3939000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>3840000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>3972000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>3764000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>4020000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>3673000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3499000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3411000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3914000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>4292000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>6149000</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>113000</v>
+      </c>
+      <c r="E45" s="3">
         <v>130000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>200000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>247000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>136000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>12093000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>111000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>127000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>131000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>141000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>189000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>262000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>327000</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>19010000</v>
+      </c>
+      <c r="E46" s="3">
         <v>21471000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>22246000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>23373000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>26407000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>35130000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>20143000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>21056000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>21501000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>17714000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>18383000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>16369000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>18901000</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>4633000</v>
+      </c>
+      <c r="E47" s="3">
         <v>5374000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>4156000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>4185000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>3663000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>3652000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>4276000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>4532000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>4460000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>6122000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>5054000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>6370000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>7416000</v>
       </c>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>73711000</v>
+      </c>
+      <c r="E48" s="3">
         <v>72362000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>70196000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>68041000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>66673000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>67182000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>78849000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>80497000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>82170000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>83975000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>85439000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>94072000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>108771000</v>
       </c>
     </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>624000</v>
+        <v>1508000</v>
       </c>
       <c r="E49" s="3">
+        <v>1574000</v>
+      </c>
+      <c r="F49" s="3">
         <v>670000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>675000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>718000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>778000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3873000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>3968000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4030000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4119000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>4214000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>4292000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>5289000</v>
       </c>
     </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2282,8 +2395,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2323,49 +2439,55 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>4371000</v>
+      </c>
+      <c r="E52" s="3">
         <v>4952000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>5022000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>4587000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>4953000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>5251000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>5441000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>6953000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>7374000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>7023000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>5579000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>3477000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>5704000</v>
       </c>
     </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2405,49 +2527,55 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>104783000</v>
+        <v>103233000</v>
       </c>
       <c r="E54" s="3">
+        <v>105733000</v>
+      </c>
+      <c r="F54" s="3">
         <v>102290000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>100861000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>102414000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>111993000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>112582000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>117006000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>119535000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>118953000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>118669000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>124580000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>146081000</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2463,8 +2591,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2480,254 +2609,273 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5663000</v>
+      </c>
+      <c r="E57" s="3">
         <v>5767000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>5798000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>6717000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>5616000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>5977000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>5999000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>5551000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5128000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>5389000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>5678000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>7389000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>8338000</v>
       </c>
     </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>5012000</v>
+        <v>3560000</v>
       </c>
       <c r="E58" s="3">
+        <v>10024000</v>
+      </c>
+      <c r="F58" s="3">
         <v>4273000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1661000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1527000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>2736000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>2033000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1241000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3374000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>4653000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>4071000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3201000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2459000</v>
       </c>
     </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4138000</v>
+      </c>
+      <c r="E59" s="3">
         <v>4045000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3691000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3961000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3225000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>5276000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3498000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>4574000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3497000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2298000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1889000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2263000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2553000</v>
       </c>
     </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>13361000</v>
+      </c>
+      <c r="E60" s="3">
         <v>14824000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>13762000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>12339000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>10368000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>13989000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>11530000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>11366000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>11999000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>12340000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>11638000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>12853000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>13350000</v>
       </c>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>19159000</v>
+      </c>
+      <c r="E61" s="3">
         <v>22036000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>22535000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>23167000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>23938000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>24069000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>25700000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>29233000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>30670000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>31768000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>32476000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>27969000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>28610000</v>
       </c>
     </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>15677000</v>
+        <v>17290000</v>
       </c>
       <c r="E62" s="3">
+        <v>16698000</v>
+      </c>
+      <c r="F62" s="3">
         <v>13575000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>13531000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>12792000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>13265000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>13191000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>13681000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>14441000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>14774000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>13125000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>13213000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>17871000</v>
       </c>
     </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2767,8 +2915,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2808,8 +2959,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2849,49 +3003,55 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>56847000</v>
+        <v>54311000</v>
       </c>
       <c r="E66" s="3">
+        <v>57868000</v>
+      </c>
+      <c r="F66" s="3">
         <v>54168000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>53621000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>51767000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>56401000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>55605000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>59748000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>62886000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>64663000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>62883000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>59812000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>66236000</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2907,8 +3067,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2948,8 +3109,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2989,8 +3153,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3030,8 +3197,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3071,49 +3241,55 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>45773000</v>
+        <v>46784000</v>
       </c>
       <c r="E72" s="3">
+        <v>45702000</v>
+      </c>
+      <c r="F72" s="3">
         <v>45968000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>45104000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>48495000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>53354000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>54742000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>55018000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>54417000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>52080000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>53585000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>62601000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>77832000</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3153,8 +3329,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3194,8 +3373,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3235,49 +3417,55 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>47936000</v>
+        <v>48922000</v>
       </c>
       <c r="E76" s="3">
+        <v>47865000</v>
+      </c>
+      <c r="F76" s="3">
         <v>48122000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>47240000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>50647000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>55592000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>56977000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>57258000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>56649000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>54290000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>55786000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>64768000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>79845000</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3317,95 +3505,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43281</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43100</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42916</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42735</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42551</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42369</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42185</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>3876000</v>
+      </c>
+      <c r="E81" s="3">
         <v>3088000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>4868000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>4542000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>3764000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1231000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>2015000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>2686000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>3204000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-716000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-5669000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2355000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>4265000</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3421,49 +3618,53 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>3245000</v>
+      </c>
+      <c r="E83" s="3">
         <v>3098000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>3014000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>2941000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>2888000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>2251000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>4037000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>3919000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>3800000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>4059000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>4602000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>4757000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>4401000</v>
       </c>
     </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3503,8 +3704,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3544,8 +3748,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3585,8 +3792,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3626,8 +3836,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3667,49 +3880,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>9369000</v>
+      </c>
+      <c r="E89" s="3">
         <v>8264000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>7442000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>10597000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>7274000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>11118000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>7343000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>9107000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>7697000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>5365000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>5260000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>8873000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>10423000</v>
       </c>
     </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3725,49 +3944,53 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-281000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-350000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-390000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-476000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-397000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-410000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-464000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-527000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-439000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-342000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-410000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>807000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-13668000</v>
       </c>
     </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3807,8 +4030,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3848,49 +4074,55 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-4209000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-3884000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-3732000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-723000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>3330000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-3475000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2446000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2239000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1922000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-3207000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-4038000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-6837000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-6317000</v>
       </c>
     </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3906,49 +4138,53 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-2767000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-2942000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-3934000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-7984000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-3411000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-2944000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-2276000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-2173000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-748000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-864000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-3266000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-3289000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-3209000</v>
       </c>
     </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3988,8 +4224,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4029,8 +4268,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4070,127 +4312,139 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-9595000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-4752000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-5000000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-9430000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-11098000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-3832000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-7059000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-7009000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2124000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2454000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>2738000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1517000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-6759000</v>
       </c>
     </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>300000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-523000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>18000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>50000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-220000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-275000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>331000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>321000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>1000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-10000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>9000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-24000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>19000</v>
       </c>
     </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-4135000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-895000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1272000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>494000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-714000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>3536000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1831000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>180000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>3652000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-306000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>3969000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>495000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-2634000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BHP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BHP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
   <si>
     <t>BHP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,109 +665,115 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="17" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43100</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42916</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42735</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42551</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42369</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42185</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>35178000</v>
+      </c>
+      <c r="E8" s="3">
         <v>25639000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>20637000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>22294000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>23546000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>20742000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>22603000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>20526000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>16944000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>18796000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>12855000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>15712000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>19776000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>24860000</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -810,8 +816,11 @@
       <c r="P9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -854,8 +863,11 @@
       <c r="P10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -872,8 +884,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -916,8 +929,11 @@
       <c r="P12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -960,23 +976,26 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>-34000</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>-529000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>40000</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>5</v>
       </c>
@@ -992,8 +1011,8 @@
       <c r="L14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1004,8 +1023,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1048,8 +1070,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1063,96 +1088,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>19022000</v>
+      </c>
+      <c r="E17" s="3">
         <v>15889000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>14530000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>13980000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>14766000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>13409000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>13772000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>13361000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>10447000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>12739000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3021000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>22742000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>19036000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>16930000</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>16156000</v>
+      </c>
+      <c r="E18" s="3">
         <v>9750000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>6107000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>8314000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>8780000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>7333000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>8831000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>7165000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>6497000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>6057000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>9834000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-7030000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>740000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>7930000</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1169,228 +1201,244 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-164000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-670000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>8000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-38000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-10000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>41000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-27000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-130000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-295000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-72000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-175000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-41000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-140000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-71000</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>19571000</v>
+      </c>
+      <c r="E21" s="3">
         <v>12325000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>9213000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>11290000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>11711000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>10262000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>11886000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>10241000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>8586000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>9785000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>11267000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-2469000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>5357000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>12260000</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>217000</v>
+      </c>
+      <c r="E22" s="3">
         <v>254000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>395000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>486000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>521000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>574000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>560000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>528000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>545000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>505000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>409000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>388000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>240000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>163000</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>15775000</v>
+      </c>
+      <c r="E23" s="3">
         <v>8826000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>5720000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>7790000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>8249000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>6800000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>8244000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>6507000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>5657000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>5480000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>9250000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-7459000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>360000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>7696000</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>7152000</v>
+      </c>
+      <c r="E24" s="3">
         <v>3998000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>2174000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>2600000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>3171000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>2358000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>2906000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1781000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2415000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>2028000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>3829000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-1726000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>362000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>3304000</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1433,96 +1481,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>8623000</v>
+      </c>
+      <c r="E26" s="3">
         <v>4828000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>3546000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>5190000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>5078000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>4442000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>5338000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>4726000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>3242000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>3452000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>5421000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-5733000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-2000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>4392000</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>7428000</v>
+      </c>
+      <c r="E27" s="3">
         <v>3876000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>3088000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>4868000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>4584000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>4057000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>4779000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>4167000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>3158000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>3204000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>5179000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-5669000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-442000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>3864000</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1565,52 +1622,58 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E29" s="3">
-        <v>0</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
       </c>
       <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
         <v>-42000</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>-293000</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-6010000</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-2152000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-472000</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N29" s="3">
         <v>-5895000</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
       <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>-1913000</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>401000</v>
       </c>
     </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1653,8 +1716,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1697,96 +1763,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>164000</v>
+      </c>
+      <c r="E32" s="3">
         <v>670000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-8000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>38000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>10000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-41000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>27000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>130000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>295000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>72000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>175000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>41000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>140000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>71000</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>7428000</v>
+      </c>
+      <c r="E33" s="3">
         <v>3876000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>3088000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>4868000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>4542000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>3764000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1231000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>2015000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2686000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>3204000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-716000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-5669000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-2355000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>4265000</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1829,101 +1904,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>7428000</v>
+      </c>
+      <c r="E35" s="3">
         <v>3876000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>3088000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>4868000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>4542000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>3764000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1231000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>2015000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2686000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>3204000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-716000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-5669000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-2355000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>4265000</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43100</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42916</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42735</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42551</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42369</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42185</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1940,8 +2024,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1958,404 +2043,432 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>15246000</v>
+      </c>
+      <c r="E41" s="3">
         <v>9291000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>13426000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>14321000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>15613000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>15575000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>15871000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>12322000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>14153000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>13987000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>10319000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>10626000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>6753000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>6130000</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>230000</v>
+      </c>
+      <c r="E42" s="3">
         <v>227000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>84000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>54000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>87000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>237000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>200000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>51000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>72000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>103000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>121000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>75000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>83000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>81000</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>6338000</v>
+      </c>
+      <c r="E43" s="3">
         <v>4868000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>3730000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>3732000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>3586000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>6487000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>3202000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>3639000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3031000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3781000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3722000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3579000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>4979000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>6214000</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>4426000</v>
+      </c>
+      <c r="E44" s="3">
         <v>4511000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>4101000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>3939000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>3840000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>3972000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>3764000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>4020000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3673000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3499000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3411000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3914000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>4292000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>6149000</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>453000</v>
+      </c>
+      <c r="E45" s="3">
         <v>113000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>130000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>200000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>247000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>136000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>12093000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>111000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>127000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>131000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>141000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>189000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>262000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>327000</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>26693000</v>
+      </c>
+      <c r="E46" s="3">
         <v>19010000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>21471000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>22246000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>23373000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>26407000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>35130000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>20143000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>21056000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>21501000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>17714000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>18383000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>16369000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>18901000</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>3689000</v>
+      </c>
+      <c r="E47" s="3">
         <v>4633000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>5374000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>4156000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>4185000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>3663000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>3652000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>4276000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>4532000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>4460000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>6122000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>5054000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>6370000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>7416000</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>73813000</v>
+      </c>
+      <c r="E48" s="3">
         <v>73711000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>72362000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>70196000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>68041000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>66673000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>67182000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>78849000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>80497000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>82170000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>83975000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>85439000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>94072000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>108771000</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1437000</v>
+      </c>
+      <c r="E49" s="3">
         <v>1508000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1574000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>670000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>675000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>718000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>778000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>3873000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3968000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4030000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>4119000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>4214000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>4292000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>5289000</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2398,8 +2511,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2442,52 +2558,58 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3295000</v>
+      </c>
+      <c r="E52" s="3">
         <v>4371000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>4952000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>5022000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>4587000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>4953000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>5251000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>5441000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>6953000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>7374000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>7023000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>5579000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>3477000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>5704000</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2530,52 +2652,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>108927000</v>
+      </c>
+      <c r="E54" s="3">
         <v>103233000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>105733000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>102290000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>100861000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>102414000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>111993000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>112582000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>117006000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>119535000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>118953000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>118669000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>124580000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>146081000</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2592,8 +2720,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2610,272 +2739,291 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>7027000</v>
+      </c>
+      <c r="E57" s="3">
         <v>5663000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>5767000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>5798000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>6717000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>5616000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>5977000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>5999000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5551000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>5128000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>5389000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>5678000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>7389000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>8338000</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2628000</v>
+      </c>
+      <c r="E58" s="3">
         <v>3560000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>10024000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>4273000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1661000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1527000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>2736000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>2033000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1241000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3374000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>4653000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>4071000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3201000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2459000</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>6748000</v>
+      </c>
+      <c r="E59" s="3">
         <v>4138000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4045000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3691000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3961000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3225000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>5276000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3498000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4574000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3497000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2298000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1889000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2263000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2553000</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>16403000</v>
+      </c>
+      <c r="E60" s="3">
         <v>13361000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>14824000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>13762000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>12339000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>10368000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>13989000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>11530000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>11366000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>11999000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>12340000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>11638000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>12853000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>13350000</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>18355000</v>
+      </c>
+      <c r="E61" s="3">
         <v>19159000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>22036000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>22535000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>23167000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>23938000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>24069000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>25700000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>29233000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>30670000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>31768000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>32476000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>27969000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>28610000</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>18564000</v>
+      </c>
+      <c r="E62" s="3">
         <v>17290000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>16698000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>13575000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>13531000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>12792000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>13265000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>13191000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>13681000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>14441000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>14774000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>13125000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>13213000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>17871000</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2918,8 +3066,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2962,8 +3113,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3006,52 +3160,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>57663000</v>
+      </c>
+      <c r="E66" s="3">
         <v>54311000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>57868000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>54168000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>53621000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>51767000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>56401000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>55605000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>59748000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>62886000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>64663000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>62883000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>59812000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>66236000</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3068,8 +3228,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3112,8 +3273,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3156,8 +3320,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3200,8 +3367,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3244,52 +3414,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>49129000</v>
+      </c>
+      <c r="E72" s="3">
         <v>46784000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>45702000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>45968000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>45104000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>48495000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>53354000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>54742000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>55018000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>54417000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>52080000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>53585000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>62601000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>77832000</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3332,8 +3508,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3376,8 +3555,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3420,52 +3602,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>51264000</v>
+      </c>
+      <c r="E76" s="3">
         <v>48922000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>47865000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>48122000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>47240000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>50647000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>55592000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>56977000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>57258000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>56649000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>54290000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>55786000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>64768000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>79845000</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3508,101 +3696,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43100</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42916</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42735</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42551</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42369</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42185</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>7428000</v>
+      </c>
+      <c r="E81" s="3">
         <v>3876000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>3088000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>4868000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>4542000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>3764000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1231000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>2015000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2686000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>3204000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-716000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-5669000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-2355000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>4265000</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3619,52 +3816,56 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>3579000</v>
+      </c>
+      <c r="E83" s="3">
         <v>3245000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>3098000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>3014000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>2941000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>2888000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>2251000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>4037000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>3919000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>3800000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>4059000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>4602000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>4757000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>4401000</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3707,8 +3908,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3751,8 +3955,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3795,8 +4002,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3839,8 +4049,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3883,52 +4096,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>17865000</v>
+      </c>
+      <c r="E89" s="3">
         <v>9369000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>8264000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>7442000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>10597000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>7274000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>11118000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>7343000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>9107000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>7697000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>5365000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>5260000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>8873000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>10423000</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3945,52 +4164,56 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-233000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-281000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-350000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-390000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-476000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-397000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-410000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-464000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-527000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-439000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-342000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-410000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>807000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-13668000</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4033,8 +4256,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4077,52 +4303,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3636000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-4209000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-3884000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-3732000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-723000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>3330000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-3475000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2446000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2239000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1922000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-3207000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-4038000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-6837000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-6317000</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4139,52 +4371,56 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-5134000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-2767000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-2942000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-3934000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-7984000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-3411000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-2944000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-2276000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-2173000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-748000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-864000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-3266000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-3289000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-3209000</v>
       </c>
     </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4227,8 +4463,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4271,8 +4510,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4315,136 +4557,148 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-8327000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-9595000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-4752000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-5000000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-9430000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-11098000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-3832000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-7059000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-7009000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2124000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-2454000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>2738000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1517000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-6759000</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>53000</v>
+      </c>
+      <c r="E101" s="3">
         <v>300000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-523000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>18000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>50000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-220000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-275000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>331000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>321000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>1000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-10000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>9000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-24000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>19000</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>5955000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-4135000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-895000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1272000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>494000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-714000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>3536000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1831000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>180000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>3652000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-306000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>3969000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>495000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-2634000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BHP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BHP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="92">
   <si>
     <t>BHP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,115 +665,121 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="17" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="18" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42916</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42735</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42551</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42369</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42185</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>35178000</v>
+        <v>30527000</v>
       </c>
       <c r="E8" s="3">
-        <v>25639000</v>
+        <v>56921000</v>
       </c>
       <c r="F8" s="3">
+        <v>24044000</v>
+      </c>
+      <c r="G8" s="3">
         <v>20637000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>22294000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>23546000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>20742000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>22603000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>20526000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>16944000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>18796000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>12855000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>15712000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>19776000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>24860000</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -819,8 +825,11 @@
       <c r="Q9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -866,8 +875,11 @@
       <c r="Q10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -885,8 +897,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -932,8 +945,11 @@
       <c r="Q12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -979,26 +995,29 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="3">
         <v>-34000</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>-529000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>40000</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>5</v>
       </c>
@@ -1014,8 +1033,8 @@
       <c r="M14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1026,8 +1045,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1073,8 +1095,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1089,102 +1114,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>19022000</v>
+        <v>15682000</v>
       </c>
       <c r="E17" s="3">
-        <v>15889000</v>
+        <v>31406000</v>
       </c>
       <c r="F17" s="3">
+        <v>14155000</v>
+      </c>
+      <c r="G17" s="3">
         <v>14530000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>13980000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>14766000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>13409000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>13772000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>13361000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>10447000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>12739000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3021000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>22742000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>19036000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>16930000</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>16156000</v>
+        <v>14845000</v>
       </c>
       <c r="E18" s="3">
-        <v>9750000</v>
+        <v>25515000</v>
       </c>
       <c r="F18" s="3">
+        <v>9889000</v>
+      </c>
+      <c r="G18" s="3">
         <v>6107000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>8314000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>8780000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>7333000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>8831000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>7165000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>6497000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>6057000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>9834000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-7030000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>740000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>7930000</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1202,243 +1234,259 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-164000</v>
+        <v>-108000</v>
       </c>
       <c r="E20" s="3">
-        <v>-670000</v>
+        <v>-718000</v>
       </c>
       <c r="F20" s="3">
+        <v>-605000</v>
+      </c>
+      <c r="G20" s="3">
         <v>8000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-38000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-10000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>41000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-27000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-130000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-295000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-72000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-175000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-41000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-140000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-71000</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>19571000</v>
+        <v>17588000</v>
       </c>
       <c r="E21" s="3">
-        <v>12325000</v>
+        <v>31621000</v>
       </c>
       <c r="F21" s="3">
+        <v>12529000</v>
+      </c>
+      <c r="G21" s="3">
         <v>9213000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>11290000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>11711000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>10262000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>11886000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>10241000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>8586000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>9785000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>11267000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-2469000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>5357000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>12260000</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>217000</v>
+        <v>244000</v>
       </c>
       <c r="E22" s="3">
-        <v>254000</v>
+        <v>505000</v>
       </c>
       <c r="F22" s="3">
+        <v>271000</v>
+      </c>
+      <c r="G22" s="3">
         <v>395000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>486000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>521000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>574000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>560000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>528000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>545000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>505000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>409000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>388000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>240000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>163000</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>15775000</v>
+        <v>14493000</v>
       </c>
       <c r="E23" s="3">
-        <v>8826000</v>
+        <v>24292000</v>
       </c>
       <c r="F23" s="3">
+        <v>9013000</v>
+      </c>
+      <c r="G23" s="3">
         <v>5720000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>7790000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>8249000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>6800000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>8244000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>6507000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>5657000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>5480000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>9250000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-7459000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>360000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>7696000</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>7152000</v>
+        <v>4959000</v>
       </c>
       <c r="E24" s="3">
-        <v>3998000</v>
+        <v>10616000</v>
       </c>
       <c r="F24" s="3">
+        <v>3993000</v>
+      </c>
+      <c r="G24" s="3">
         <v>2174000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>2600000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>3171000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>2358000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>2906000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1781000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>2415000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>2028000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>3829000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-1726000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>362000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>3304000</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1484,102 +1532,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>8623000</v>
+        <v>9534000</v>
       </c>
       <c r="E26" s="3">
-        <v>4828000</v>
+        <v>13676000</v>
       </c>
       <c r="F26" s="3">
+        <v>5020000</v>
+      </c>
+      <c r="G26" s="3">
         <v>3546000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>5190000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>5078000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>4442000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>5338000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>4726000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>3242000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>3452000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>5421000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-5733000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>4392000</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>7428000</v>
+        <v>8471000</v>
       </c>
       <c r="E27" s="3">
-        <v>3876000</v>
+        <v>11529000</v>
       </c>
       <c r="F27" s="3">
+        <v>4068000</v>
+      </c>
+      <c r="G27" s="3">
         <v>3088000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>4868000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>4584000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>4057000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>4779000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>4167000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>3158000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>3204000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>5179000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-5669000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-442000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>3864000</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1625,55 +1682,61 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>5</v>
+        <v>972000</v>
+      </c>
+      <c r="E29" s="3">
+        <v>-225000</v>
       </c>
       <c r="F29" s="3">
-        <v>0</v>
+        <v>-192000</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
       </c>
       <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
         <v>-42000</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-293000</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-6010000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-2152000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-472000</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O29" s="3">
         <v>-5895000</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
       <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-1913000</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>401000</v>
       </c>
     </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1719,8 +1782,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1766,102 +1832,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>164000</v>
+        <v>108000</v>
       </c>
       <c r="E32" s="3">
-        <v>670000</v>
+        <v>718000</v>
       </c>
       <c r="F32" s="3">
+        <v>605000</v>
+      </c>
+      <c r="G32" s="3">
         <v>-8000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>38000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>10000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-41000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>27000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>130000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>295000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>72000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>175000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>41000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>140000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>71000</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>7428000</v>
+        <v>9443000</v>
       </c>
       <c r="E33" s="3">
+        <v>11304000</v>
+      </c>
+      <c r="F33" s="3">
         <v>3876000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>3088000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>4868000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>4542000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>3764000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1231000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2015000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2686000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>3204000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-716000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-5669000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-2355000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>4265000</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1907,107 +1982,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>7428000</v>
+        <v>9443000</v>
       </c>
       <c r="E35" s="3">
+        <v>11304000</v>
+      </c>
+      <c r="F35" s="3">
         <v>3876000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>3088000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>4868000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>4542000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>3764000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1231000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2015000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2686000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>3204000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-716000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-5669000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-2355000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>4265000</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42916</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42735</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42551</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42369</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42185</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2025,8 +2109,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2044,431 +2129,459 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>12366000</v>
+      </c>
+      <c r="E41" s="3">
         <v>15246000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>9291000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>13426000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>14321000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>15613000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>15575000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>15871000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>12322000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>14153000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>13987000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>10319000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>10626000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>6753000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>6130000</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>264000</v>
+      </c>
+      <c r="E42" s="3">
         <v>230000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>227000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>84000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>54000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>87000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>237000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>200000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>51000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>72000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>103000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>121000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>75000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>83000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>81000</v>
       </c>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>5138000</v>
+      </c>
+      <c r="E43" s="3">
         <v>6338000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>4868000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>3730000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>3732000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>3586000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>6487000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>3202000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3639000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3031000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3781000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3722000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3579000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>4979000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>6214000</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>4514000</v>
+      </c>
+      <c r="E44" s="3">
         <v>4426000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>4511000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>4101000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>3939000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>3840000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>3972000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>3764000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4020000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3673000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3499000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3411000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3914000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>4292000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>6149000</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>17391000</v>
+      </c>
+      <c r="E45" s="3">
         <v>453000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>113000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>130000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>200000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>247000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>136000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>12093000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>111000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>127000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>131000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>141000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>189000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>262000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>327000</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>39673000</v>
+      </c>
+      <c r="E46" s="3">
         <v>26693000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>19010000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>21471000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>22246000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>23373000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>26407000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>35130000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>20143000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>21056000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>21501000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>17714000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>18383000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>16369000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>18901000</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2875000</v>
+      </c>
+      <c r="E47" s="3">
         <v>3689000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>4633000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>5374000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>4156000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>4185000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>3663000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>3652000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>4276000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>4532000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>4460000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>6122000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>5054000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>6370000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>7416000</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>60433000</v>
+      </c>
+      <c r="E48" s="3">
         <v>73813000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>73711000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>72362000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>70196000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>68041000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>66673000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>67182000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>78849000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>80497000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>82170000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>83975000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>85439000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>94072000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>108771000</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1332000</v>
+      </c>
+      <c r="E49" s="3">
         <v>1437000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1508000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1574000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>670000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>675000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>718000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>778000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3873000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3968000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>4030000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>4119000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>4214000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>4292000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>5289000</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2514,8 +2627,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2561,55 +2677,61 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1412000</v>
+      </c>
+      <c r="E52" s="3">
         <v>3295000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>4371000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>4952000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>5022000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>4587000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>4953000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>5251000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>5441000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>6953000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>7374000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>7023000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>5579000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>3477000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>5704000</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2655,55 +2777,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>105725000</v>
+      </c>
+      <c r="E54" s="3">
         <v>108927000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>103233000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>105733000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>102290000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>100861000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>102414000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>111993000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>112582000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>117006000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>119535000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>118953000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>118669000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>124580000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>146081000</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2721,8 +2849,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2740,290 +2869,309 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4570000</v>
+      </c>
+      <c r="E57" s="3">
         <v>7027000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>5663000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>5767000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>5798000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>6717000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>5616000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>5977000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5999000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>5551000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>5128000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>5389000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>5678000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>7389000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>8338000</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>3054000</v>
+      </c>
+      <c r="E58" s="3">
         <v>2628000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>3560000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>10024000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>4273000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1661000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1527000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>2736000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2033000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1241000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3374000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>4653000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>4071000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3201000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2459000</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>12995000</v>
+      </c>
+      <c r="E59" s="3">
         <v>6748000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4138000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4045000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3691000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3961000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3225000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>5276000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3498000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4574000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3497000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2298000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1889000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2263000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2553000</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>20619000</v>
+      </c>
+      <c r="E60" s="3">
         <v>16403000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>13361000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>14824000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>13762000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>12339000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>10368000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>13989000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>11530000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>11366000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>11999000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>12340000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>11638000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>12853000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>13350000</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>15897000</v>
+      </c>
+      <c r="E61" s="3">
         <v>18355000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>19159000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>22036000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>22535000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>23167000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>23938000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>24069000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>25700000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>29233000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>30670000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>31768000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>32476000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>27969000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>28610000</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>14287000</v>
+      </c>
+      <c r="E62" s="3">
         <v>18564000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>17290000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>16698000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>13575000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>13531000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>12792000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>13265000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>13191000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>13681000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>14441000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>14774000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>13125000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>13213000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>17871000</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3069,8 +3217,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3116,8 +3267,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3163,55 +3317,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>54938000</v>
+      </c>
+      <c r="E66" s="3">
         <v>57663000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>54311000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>57868000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>54168000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>53621000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>51767000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>56401000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>55605000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>59748000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>62886000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>64663000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>62883000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>59812000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>66236000</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3229,8 +3389,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3276,8 +3437,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3323,8 +3487,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3370,8 +3537,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3417,55 +3587,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>48454000</v>
+      </c>
+      <c r="E72" s="3">
         <v>49129000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>46784000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>45702000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>45968000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>45104000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>48495000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>53354000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>54742000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>55018000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>54417000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>52080000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>53585000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>62601000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>77832000</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3511,8 +3687,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3558,8 +3737,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3605,55 +3787,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>50787000</v>
+      </c>
+      <c r="E76" s="3">
         <v>51264000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>48922000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>47865000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>48122000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>47240000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>50647000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>55592000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>56977000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>57258000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>56649000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>54290000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>55786000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>64768000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>79845000</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3699,107 +3887,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42916</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42735</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42551</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42369</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42185</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>7428000</v>
+        <v>9443000</v>
       </c>
       <c r="E81" s="3">
+        <v>11304000</v>
+      </c>
+      <c r="F81" s="3">
         <v>3876000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>3088000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>4868000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>4542000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>3764000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1231000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2015000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2686000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>3204000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-716000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-5669000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-2355000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>4265000</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3817,55 +4014,59 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3579000</v>
+        <v>2851000</v>
       </c>
       <c r="E83" s="3">
+        <v>6824000</v>
+      </c>
+      <c r="F83" s="3">
         <v>3245000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>3098000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>3014000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>2941000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>2888000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>2251000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>4037000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>3919000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>3800000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>4059000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>4602000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>4757000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>4401000</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3911,8 +4112,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3958,8 +4162,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4005,8 +4212,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4052,8 +4262,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4099,55 +4312,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>17865000</v>
+        <v>13277000</v>
       </c>
       <c r="E89" s="3">
+        <v>27234000</v>
+      </c>
+      <c r="F89" s="3">
         <v>9369000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>8264000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>7442000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>10597000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>7274000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>11118000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>7343000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>9107000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>7697000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>5365000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>5260000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>8873000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>10423000</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4165,55 +4384,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-233000</v>
+        <v>-110000</v>
       </c>
       <c r="E91" s="3">
+        <v>-514000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-281000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-350000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-390000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-476000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-397000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-410000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-464000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-527000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-439000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-342000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-410000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>807000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-13668000</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4259,8 +4482,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4306,55 +4532,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-3636000</v>
+        <v>-3589000</v>
       </c>
       <c r="E94" s="3">
+        <v>-7845000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-4209000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-3884000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-3732000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-723000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>3330000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-3475000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2446000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2239000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1922000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-3207000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-4038000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-6837000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-6317000</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4372,55 +4604,59 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-5134000</v>
+        <v>-10029000</v>
       </c>
       <c r="E96" s="3">
+        <v>-7901000</v>
+      </c>
+      <c r="F96" s="3">
         <v>-2767000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-2942000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-3934000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-7984000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-3411000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-2944000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-2276000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-2173000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-748000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-864000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-3266000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-3289000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-3209000</v>
       </c>
     </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4466,8 +4702,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4513,8 +4752,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4560,145 +4802,157 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-8327000</v>
+        <v>-12506000</v>
       </c>
       <c r="E100" s="3">
+        <v>-17922000</v>
+      </c>
+      <c r="F100" s="3">
         <v>-9595000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-4752000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-5000000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-9430000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-11098000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-3832000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-7059000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-7009000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-2124000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-2454000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>2738000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1517000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-6759000</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>53000</v>
+        <v>-62000</v>
       </c>
       <c r="E101" s="3">
+        <v>353000</v>
+      </c>
+      <c r="F101" s="3">
         <v>300000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-523000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>18000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>50000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-220000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-275000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>331000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>321000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>1000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-10000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>9000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-24000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>19000</v>
       </c>
     </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>5955000</v>
+        <v>-2880000</v>
       </c>
       <c r="E102" s="3">
+        <v>1820000</v>
+      </c>
+      <c r="F102" s="3">
         <v>-4135000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-895000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1272000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>494000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-714000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>3536000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1831000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>180000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>3652000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-306000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>3969000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>495000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-2634000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BHP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BHP_QTR_FIN.xlsx
@@ -737,7 +737,7 @@
         <v>30527000</v>
       </c>
       <c r="E8" s="3">
-        <v>56921000</v>
+        <v>32877000</v>
       </c>
       <c r="F8" s="3">
         <v>24044000</v>
@@ -1124,7 +1124,7 @@
         <v>15682000</v>
       </c>
       <c r="E17" s="3">
-        <v>31406000</v>
+        <v>17251000</v>
       </c>
       <c r="F17" s="3">
         <v>14155000</v>
@@ -1174,7 +1174,7 @@
         <v>14845000</v>
       </c>
       <c r="E18" s="3">
-        <v>25515000</v>
+        <v>15626000</v>
       </c>
       <c r="F18" s="3">
         <v>9889000</v>
@@ -1244,7 +1244,7 @@
         <v>-108000</v>
       </c>
       <c r="E20" s="3">
-        <v>-718000</v>
+        <v>-113000</v>
       </c>
       <c r="F20" s="3">
         <v>-605000</v>
@@ -1294,7 +1294,7 @@
         <v>17588000</v>
       </c>
       <c r="E21" s="3">
-        <v>31621000</v>
+        <v>19092000</v>
       </c>
       <c r="F21" s="3">
         <v>12529000</v>
@@ -1344,7 +1344,7 @@
         <v>244000</v>
       </c>
       <c r="E22" s="3">
-        <v>505000</v>
+        <v>234000</v>
       </c>
       <c r="F22" s="3">
         <v>271000</v>
@@ -1394,7 +1394,7 @@
         <v>14493000</v>
       </c>
       <c r="E23" s="3">
-        <v>24292000</v>
+        <v>15279000</v>
       </c>
       <c r="F23" s="3">
         <v>9013000</v>
@@ -1444,7 +1444,7 @@
         <v>4959000</v>
       </c>
       <c r="E24" s="3">
-        <v>10616000</v>
+        <v>6623000</v>
       </c>
       <c r="F24" s="3">
         <v>3993000</v>
@@ -1544,7 +1544,7 @@
         <v>9534000</v>
       </c>
       <c r="E26" s="3">
-        <v>13676000</v>
+        <v>8656000</v>
       </c>
       <c r="F26" s="3">
         <v>5020000</v>
@@ -1594,7 +1594,7 @@
         <v>8471000</v>
       </c>
       <c r="E27" s="3">
-        <v>11529000</v>
+        <v>7461000</v>
       </c>
       <c r="F27" s="3">
         <v>4068000</v>
@@ -1694,7 +1694,7 @@
         <v>972000</v>
       </c>
       <c r="E29" s="3">
-        <v>-225000</v>
+        <v>-33000</v>
       </c>
       <c r="F29" s="3">
         <v>-192000</v>
@@ -1844,7 +1844,7 @@
         <v>108000</v>
       </c>
       <c r="E32" s="3">
-        <v>718000</v>
+        <v>113000</v>
       </c>
       <c r="F32" s="3">
         <v>605000</v>
@@ -1894,7 +1894,7 @@
         <v>9443000</v>
       </c>
       <c r="E33" s="3">
-        <v>11304000</v>
+        <v>7428000</v>
       </c>
       <c r="F33" s="3">
         <v>3876000</v>
@@ -1994,7 +1994,7 @@
         <v>9443000</v>
       </c>
       <c r="E35" s="3">
-        <v>11304000</v>
+        <v>7428000</v>
       </c>
       <c r="F35" s="3">
         <v>3876000</v>
@@ -3954,7 +3954,7 @@
         <v>9443000</v>
       </c>
       <c r="E81" s="3">
-        <v>11304000</v>
+        <v>7428000</v>
       </c>
       <c r="F81" s="3">
         <v>3876000</v>
@@ -4024,7 +4024,7 @@
         <v>2851000</v>
       </c>
       <c r="E83" s="3">
-        <v>6824000</v>
+        <v>3579000</v>
       </c>
       <c r="F83" s="3">
         <v>3245000</v>
@@ -4324,7 +4324,7 @@
         <v>13277000</v>
       </c>
       <c r="E89" s="3">
-        <v>27234000</v>
+        <v>17865000</v>
       </c>
       <c r="F89" s="3">
         <v>9369000</v>
@@ -4394,7 +4394,7 @@
         <v>-110000</v>
       </c>
       <c r="E91" s="3">
-        <v>-514000</v>
+        <v>-233000</v>
       </c>
       <c r="F91" s="3">
         <v>-281000</v>
@@ -4544,7 +4544,7 @@
         <v>-3589000</v>
       </c>
       <c r="E94" s="3">
-        <v>-7845000</v>
+        <v>-3636000</v>
       </c>
       <c r="F94" s="3">
         <v>-4209000</v>
@@ -4614,7 +4614,7 @@
         <v>-10029000</v>
       </c>
       <c r="E96" s="3">
-        <v>-7901000</v>
+        <v>-5134000</v>
       </c>
       <c r="F96" s="3">
         <v>-2767000</v>
@@ -4814,7 +4814,7 @@
         <v>-12506000</v>
       </c>
       <c r="E100" s="3">
-        <v>-17922000</v>
+        <v>-8327000</v>
       </c>
       <c r="F100" s="3">
         <v>-9595000</v>
@@ -4864,7 +4864,7 @@
         <v>-62000</v>
       </c>
       <c r="E101" s="3">
-        <v>353000</v>
+        <v>53000</v>
       </c>
       <c r="F101" s="3">
         <v>300000</v>
@@ -4914,7 +4914,7 @@
         <v>-2880000</v>
       </c>
       <c r="E102" s="3">
-        <v>1820000</v>
+        <v>5955000</v>
       </c>
       <c r="F102" s="3">
         <v>-4135000</v>

--- a/AAII_Financials/Quarterly/BHP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BHP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="92">
   <si>
     <t>BHP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,121 +665,128 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="18" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="19" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42735</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42551</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42369</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42185</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>34571000</v>
+      </c>
+      <c r="E8" s="3">
         <v>30527000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>32877000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>24044000</v>
       </c>
-      <c r="G8" s="3">
-        <v>20637000</v>
-      </c>
       <c r="H8" s="3">
+        <v>38924000</v>
+      </c>
+      <c r="I8" s="3">
         <v>22294000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>23546000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>20742000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>22603000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>20526000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>16944000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>18796000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>12855000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>15712000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>19776000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>24860000</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -828,8 +835,11 @@
       <c r="R9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -878,8 +888,11 @@
       <c r="R10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -898,8 +911,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -948,8 +962,11 @@
       <c r="R12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -998,29 +1015,32 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="3">
-        <v>-34000</v>
+      <c r="D14" s="3">
+        <v>-844000</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F14" s="3">
-        <v>0</v>
+        <v>-46000</v>
       </c>
       <c r="G14" s="3">
-        <v>-529000</v>
+        <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>-489000</v>
+      </c>
+      <c r="I14" s="3">
         <v>40000</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>5</v>
       </c>
@@ -1036,8 +1056,8 @@
       <c r="N14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1048,8 +1068,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1098,8 +1121,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1115,108 +1141,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>15310000</v>
+      </c>
+      <c r="E17" s="3">
         <v>15682000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>17251000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>14155000</v>
       </c>
-      <c r="G17" s="3">
-        <v>14530000</v>
-      </c>
       <c r="H17" s="3">
+        <v>25241000</v>
+      </c>
+      <c r="I17" s="3">
         <v>13980000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>14766000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>13409000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>13772000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>13361000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>10447000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>12739000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3021000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>22742000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>19036000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>16930000</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>19261000</v>
+      </c>
+      <c r="E18" s="3">
         <v>14845000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>15626000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>9889000</v>
       </c>
-      <c r="G18" s="3">
-        <v>6107000</v>
-      </c>
       <c r="H18" s="3">
+        <v>13683000</v>
+      </c>
+      <c r="I18" s="3">
         <v>8314000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>8780000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>7333000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>8831000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>7165000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>6497000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>6057000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>9834000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-7030000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>740000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>7930000</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1235,258 +1268,274 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-364000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-108000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-113000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-605000</v>
       </c>
-      <c r="G20" s="3">
-        <v>8000</v>
-      </c>
       <c r="H20" s="3">
+        <v>52000</v>
+      </c>
+      <c r="I20" s="3">
         <v>-38000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-10000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>41000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-27000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-130000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-295000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-72000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-175000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-41000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-140000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-71000</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>21729000</v>
+      </c>
+      <c r="E21" s="3">
         <v>17588000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>19092000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>12529000</v>
       </c>
-      <c r="G21" s="3">
-        <v>9213000</v>
-      </c>
       <c r="H21" s="3">
+        <v>19847000</v>
+      </c>
+      <c r="I21" s="3">
         <v>11290000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>11711000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>10262000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>11886000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>10241000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>8586000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>9785000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>11267000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-2469000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>5357000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>12260000</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>253000</v>
+      </c>
+      <c r="E22" s="3">
         <v>244000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>234000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>271000</v>
       </c>
-      <c r="G22" s="3">
-        <v>395000</v>
-      </c>
       <c r="H22" s="3">
+        <v>910000</v>
+      </c>
+      <c r="I22" s="3">
         <v>486000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>521000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>574000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>560000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>528000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>545000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>505000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>409000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>388000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>240000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>163000</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>18644000</v>
+      </c>
+      <c r="E23" s="3">
         <v>14493000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>15279000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>9013000</v>
       </c>
-      <c r="G23" s="3">
-        <v>5720000</v>
-      </c>
       <c r="H23" s="3">
+        <v>12825000</v>
+      </c>
+      <c r="I23" s="3">
         <v>7790000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>8249000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>6800000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>8244000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>6507000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>5657000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>5480000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>9250000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-7459000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>360000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>7696000</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>5778000</v>
+      </c>
+      <c r="E24" s="3">
         <v>4959000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>6623000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>3993000</v>
       </c>
-      <c r="G24" s="3">
-        <v>2174000</v>
-      </c>
       <c r="H24" s="3">
+        <v>4197000</v>
+      </c>
+      <c r="I24" s="3">
         <v>2600000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>3171000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>2358000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2906000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1781000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>2415000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>2028000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>3829000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-1726000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>362000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>3304000</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1535,108 +1584,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>12866000</v>
+      </c>
+      <c r="E26" s="3">
         <v>9534000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>8656000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>5020000</v>
       </c>
-      <c r="G26" s="3">
-        <v>3546000</v>
-      </c>
       <c r="H26" s="3">
+        <v>8628000</v>
+      </c>
+      <c r="I26" s="3">
         <v>5190000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>5078000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>4442000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>5338000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>4726000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>3242000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>3452000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>5421000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-5733000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-2000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>4392000</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>11774000</v>
+      </c>
+      <c r="E27" s="3">
         <v>8471000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>7461000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>4068000</v>
       </c>
-      <c r="G27" s="3">
-        <v>3088000</v>
-      </c>
       <c r="H27" s="3">
+        <v>7848000</v>
+      </c>
+      <c r="I27" s="3">
         <v>4868000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>4584000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>4057000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>4779000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>4167000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>3158000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>3204000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>5179000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-5669000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-442000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>3864000</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1685,58 +1743,64 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>9683000</v>
+      </c>
+      <c r="E29" s="3">
         <v>972000</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>-33000</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>-192000</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
       <c r="H29" s="3">
-        <v>0</v>
+        <v>108000</v>
       </c>
       <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
         <v>-42000</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-293000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-6010000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-2152000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-472000</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P29" s="3">
         <v>-5895000</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
       <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
         <v>-1913000</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>401000</v>
       </c>
     </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1785,8 +1849,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1835,108 +1902,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>364000</v>
+      </c>
+      <c r="E32" s="3">
         <v>108000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>113000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>605000</v>
       </c>
-      <c r="G32" s="3">
-        <v>-8000</v>
-      </c>
       <c r="H32" s="3">
+        <v>-52000</v>
+      </c>
+      <c r="I32" s="3">
         <v>38000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>10000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-41000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>27000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>130000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>295000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>72000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>175000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>41000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>140000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>71000</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>21457000</v>
+      </c>
+      <c r="E33" s="3">
         <v>9443000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>7428000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>3876000</v>
       </c>
-      <c r="G33" s="3">
-        <v>3088000</v>
-      </c>
       <c r="H33" s="3">
+        <v>7956000</v>
+      </c>
+      <c r="I33" s="3">
         <v>4868000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>4542000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>3764000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1231000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2015000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2686000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>3204000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-716000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-5669000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-2355000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>4265000</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1985,113 +2061,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>21457000</v>
+      </c>
+      <c r="E35" s="3">
         <v>9443000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>7428000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>3876000</v>
       </c>
-      <c r="G35" s="3">
-        <v>3088000</v>
-      </c>
       <c r="H35" s="3">
+        <v>7956000</v>
+      </c>
+      <c r="I35" s="3">
         <v>4868000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>4542000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>3764000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1231000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2015000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2686000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>3204000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-716000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-5669000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-2355000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>4265000</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42735</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42551</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42369</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42185</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2110,8 +2195,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2130,458 +2216,486 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>17236000</v>
+      </c>
+      <c r="E41" s="3">
         <v>12366000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>15246000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>9291000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>13426000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>14321000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>15613000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>15575000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>15871000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>12322000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>14153000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>13987000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>10319000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>10626000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>6753000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>6130000</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>629000</v>
+      </c>
+      <c r="E42" s="3">
         <v>264000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>230000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>227000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>84000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>54000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>87000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>237000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>200000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>51000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>72000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>103000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>121000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>75000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>83000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>81000</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>5689000</v>
+      </c>
+      <c r="E43" s="3">
         <v>5138000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>6338000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>4868000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>3730000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>3732000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>3586000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>6487000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3202000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3639000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3031000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3781000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3722000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3579000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>4979000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>6214000</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>4935000</v>
+      </c>
+      <c r="E44" s="3">
         <v>4514000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>4426000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>4511000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>4101000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>3939000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>3840000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>3972000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3764000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>4020000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3673000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3499000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3411000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3914000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>4292000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>6149000</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>175000</v>
+      </c>
+      <c r="E45" s="3">
         <v>17391000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>453000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>113000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>130000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>200000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>247000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>136000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>12093000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>111000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>127000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>131000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>141000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>189000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>262000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>327000</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>28664000</v>
+      </c>
+      <c r="E46" s="3">
         <v>39673000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>26693000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>19010000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>21471000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>22246000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>23373000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>26407000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>35130000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>20143000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>21056000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>21501000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>17714000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>18383000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>16369000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>18901000</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2375000</v>
+      </c>
+      <c r="E47" s="3">
         <v>2875000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>3689000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>4633000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>5374000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>4156000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>4185000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>3663000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3652000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>4276000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>4532000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>4460000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>6122000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>5054000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>6370000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>7416000</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>61295000</v>
+      </c>
+      <c r="E48" s="3">
         <v>60433000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>73813000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>73711000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>72362000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>70196000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>68041000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>66673000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>67182000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>78849000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>80497000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>82170000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>83975000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>85439000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>94072000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>108771000</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1369000</v>
+      </c>
+      <c r="E49" s="3">
         <v>1332000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1437000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1508000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1574000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>670000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>675000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>718000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>778000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3873000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3968000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>4030000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>4119000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>4214000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>4292000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>5289000</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2630,8 +2744,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2680,58 +2797,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1463000</v>
+      </c>
+      <c r="E52" s="3">
         <v>1412000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>3295000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>4371000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>4952000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>5022000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>4587000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>4953000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>5251000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>5441000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>6953000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>7374000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>7023000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>5579000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>3477000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>5704000</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2780,58 +2903,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>95166000</v>
+      </c>
+      <c r="E54" s="3">
         <v>105725000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>108927000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>103233000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>105733000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>102290000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>100861000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>102414000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>111993000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>112582000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>117006000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>119535000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>118953000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>118669000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>124580000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>146081000</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2850,8 +2979,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2870,308 +3000,327 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>6687000</v>
+      </c>
+      <c r="E57" s="3">
         <v>4570000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>7027000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>5663000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>5767000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>5798000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>6717000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>5616000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5977000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>5999000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>5551000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>5128000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>5389000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>5678000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>7389000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>8338000</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2622000</v>
+      </c>
+      <c r="E58" s="3">
         <v>3054000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2628000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>3560000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>10024000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>4273000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1661000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1527000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2736000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2033000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1241000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3374000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>4653000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>4071000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3201000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>2459000</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>7610000</v>
+      </c>
+      <c r="E59" s="3">
         <v>12995000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>6748000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4138000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4045000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3691000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3961000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3225000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>5276000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3498000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4574000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3497000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2298000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1889000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2263000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2553000</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>16919000</v>
+      </c>
+      <c r="E60" s="3">
         <v>20619000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>16403000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>13361000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>14824000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>13762000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>12339000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>10368000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>13989000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>11530000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>11366000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>11999000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>12340000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>11638000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>12853000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>13350000</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>13806000</v>
+      </c>
+      <c r="E61" s="3">
         <v>15897000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>18355000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>19159000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>22036000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>22535000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>23167000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>23938000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>24069000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>25700000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>29233000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>30670000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>31768000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>32476000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>27969000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>28610000</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>15675000</v>
+      </c>
+      <c r="E62" s="3">
         <v>14287000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>18564000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>17290000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>16698000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>13575000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>13531000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>12792000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>13265000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>13191000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>13681000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>14441000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>14774000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>13125000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>13213000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>17871000</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3220,8 +3369,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3270,8 +3422,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3320,58 +3475,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>50209000</v>
+      </c>
+      <c r="E66" s="3">
         <v>54938000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>57663000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>54311000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>57868000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>54168000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>53621000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>51767000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>56401000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>55605000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>59748000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>62886000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>64663000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>62883000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>59812000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>66236000</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3390,8 +3551,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3440,8 +3602,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3490,8 +3655,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3540,8 +3708,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3590,58 +3761,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>40350000</v>
+      </c>
+      <c r="E72" s="3">
         <v>48454000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>49129000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>46784000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>45702000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>45968000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>45104000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>48495000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>53354000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>54742000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>55018000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>54417000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>52080000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>53585000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>62601000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>77832000</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3690,8 +3867,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3740,8 +3920,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3790,58 +3973,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>44957000</v>
+      </c>
+      <c r="E76" s="3">
         <v>50787000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>51264000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>48922000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>47865000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>48122000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>47240000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>50647000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>55592000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>56977000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>57258000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>56649000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>54290000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>55786000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>64768000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>79845000</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3890,113 +4079,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42735</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42551</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42369</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42185</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>21457000</v>
+      </c>
+      <c r="E81" s="3">
         <v>9443000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>7428000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>3876000</v>
       </c>
-      <c r="G81" s="3">
-        <v>3088000</v>
-      </c>
       <c r="H81" s="3">
+        <v>7956000</v>
+      </c>
+      <c r="I81" s="3">
         <v>4868000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>4542000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>3764000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1231000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2015000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2686000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>3204000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-716000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-5669000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-2355000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>4265000</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4015,58 +4213,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2832000</v>
+      </c>
+      <c r="E83" s="3">
         <v>2851000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>3579000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>3245000</v>
       </c>
-      <c r="G83" s="3">
-        <v>3098000</v>
-      </c>
       <c r="H83" s="3">
+        <v>6112000</v>
+      </c>
+      <c r="I83" s="3">
         <v>3014000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>2941000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>2888000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2251000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>4037000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>3919000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>3800000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>4059000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>4602000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>4757000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>4401000</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4115,8 +4317,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4165,8 +4370,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4215,8 +4423,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4265,8 +4476,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4315,58 +4529,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>18897000</v>
+      </c>
+      <c r="E89" s="3">
         <v>13277000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>17865000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>9369000</v>
       </c>
-      <c r="G89" s="3">
-        <v>8264000</v>
-      </c>
       <c r="H89" s="3">
+        <v>15706000</v>
+      </c>
+      <c r="I89" s="3">
         <v>7442000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>10597000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>7274000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>11118000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>7343000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>9107000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>7697000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>5365000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>5260000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>8873000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>10423000</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4385,58 +4605,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-146000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-110000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-233000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-281000</v>
       </c>
-      <c r="G91" s="3">
-        <v>-350000</v>
-      </c>
       <c r="H91" s="3">
+        <v>-740000</v>
+      </c>
+      <c r="I91" s="3">
         <v>-390000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-476000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-397000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-410000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-464000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-527000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-439000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-342000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-410000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>807000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-13668000</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4485,8 +4709,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4535,58 +4762,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3370000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-3589000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-3636000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-4209000</v>
       </c>
-      <c r="G94" s="3">
-        <v>-3884000</v>
-      </c>
       <c r="H94" s="3">
+        <v>-7616000</v>
+      </c>
+      <c r="I94" s="3">
         <v>-3732000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-723000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>3330000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3475000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2446000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2239000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1922000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-3207000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-4038000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-6837000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-6317000</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4605,58 +4838,62 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-7822000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-10029000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-5134000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-2767000</v>
       </c>
-      <c r="G96" s="3">
-        <v>-2942000</v>
-      </c>
       <c r="H96" s="3">
+        <v>-6876000</v>
+      </c>
+      <c r="I96" s="3">
         <v>-3934000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-7984000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-3411000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-2944000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-2276000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-2173000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-748000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-864000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-3266000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-3289000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-3209000</v>
       </c>
     </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4705,8 +4942,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4755,8 +4995,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4805,154 +5048,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-10261000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-12506000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-8327000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-9595000</v>
       </c>
-      <c r="G100" s="3">
-        <v>-4752000</v>
-      </c>
       <c r="H100" s="3">
+        <v>-9752000</v>
+      </c>
+      <c r="I100" s="3">
         <v>-5000000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-9430000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-11098000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-3832000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-7059000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-7009000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-2124000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-2454000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>2738000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1517000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-6759000</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-396000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-62000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>53000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>300000</v>
       </c>
-      <c r="G101" s="3">
-        <v>-523000</v>
-      </c>
       <c r="H101" s="3">
+        <v>-505000</v>
+      </c>
+      <c r="I101" s="3">
         <v>18000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>50000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-220000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-275000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>331000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>321000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>1000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-10000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>9000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-24000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>19000</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>4870000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-2880000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>5955000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-4135000</v>
       </c>
-      <c r="G102" s="3">
-        <v>-895000</v>
-      </c>
       <c r="H102" s="3">
+        <v>-2167000</v>
+      </c>
+      <c r="I102" s="3">
         <v>-1272000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>494000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-714000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>3536000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1831000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>180000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>3652000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-306000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>3969000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>495000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-2634000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BHP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BHP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="92">
   <si>
     <t>BHP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,128 +665,134 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="19" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="20" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42551</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42369</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42185</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>25713000</v>
+      </c>
+      <c r="E8" s="3">
         <v>34571000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>30527000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>32877000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>24044000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>38924000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>22294000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>23546000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>20742000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>22603000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>20526000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>16944000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>18796000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>12855000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>15712000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>19776000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>24860000</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -838,8 +844,11 @@
       <c r="S9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -891,8 +900,11 @@
       <c r="S10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -912,8 +924,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -965,8 +978,11 @@
       <c r="S12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1018,32 +1034,35 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="3">
         <v>-844000</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="3">
+      <c r="F14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="3">
         <v>-46000</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>-489000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>40000</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>5</v>
       </c>
@@ -1059,8 +1078,8 @@
       <c r="O14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1071,8 +1090,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1124,8 +1146,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1142,114 +1167,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>14880000</v>
+      </c>
+      <c r="E17" s="3">
         <v>15310000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>15682000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>17251000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>14155000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>25241000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>13980000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>14766000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>13409000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>13772000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>13361000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>10447000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>12739000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3021000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>22742000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>19036000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>16930000</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>10833000</v>
+      </c>
+      <c r="E18" s="3">
         <v>19261000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>14845000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>15626000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>9889000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>13683000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>8314000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>8780000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>7333000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>8831000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>7165000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>6497000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>6057000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>9834000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-7030000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>740000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>7930000</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1269,273 +1301,289 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-217000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-364000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-108000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-113000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-605000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>52000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-38000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-10000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>41000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-27000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-130000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-295000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-72000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-175000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-41000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-140000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-71000</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>13072000</v>
+      </c>
+      <c r="E21" s="3">
         <v>21729000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>17588000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>19092000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>12529000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>19847000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>11290000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>11711000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>10262000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>11886000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>10241000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>8586000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>9785000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>11267000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-2469000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>5357000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>12260000</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>435000</v>
+      </c>
+      <c r="E22" s="3">
         <v>253000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>244000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>234000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>271000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>910000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>486000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>521000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>574000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>560000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>528000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>545000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>505000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>409000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>388000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>240000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>163000</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>10181000</v>
+      </c>
+      <c r="E23" s="3">
         <v>18644000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>14493000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>15279000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>9013000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>12825000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>7790000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>8249000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>6800000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>8244000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>6507000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>5657000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>5480000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>9250000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-7459000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>360000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>7696000</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>3055000</v>
+      </c>
+      <c r="E24" s="3">
         <v>5778000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>4959000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>6623000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>3993000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>4197000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>2600000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>3171000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2358000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>2906000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1781000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>2415000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>2028000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>3829000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-1726000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>362000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>3304000</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1587,114 +1635,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>7126000</v>
+      </c>
+      <c r="E26" s="3">
         <v>12866000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>9534000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>8656000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>5020000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>8628000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>5190000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>5078000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>4442000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>5338000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>4726000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>3242000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>3452000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>5421000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-5733000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-2000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>4392000</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>6457000</v>
+      </c>
+      <c r="E27" s="3">
         <v>11774000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>8471000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>7461000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>4068000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>7848000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>4868000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>4584000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>4057000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>4779000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>4167000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>3158000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>3204000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>5179000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-5669000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-442000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>3864000</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1746,61 +1803,67 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
         <v>9683000</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>972000</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>-33000</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>-192000</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>108000</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>-42000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-293000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-6010000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-2152000</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-472000</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-5895000</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
       <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
         <v>-1913000</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>401000</v>
       </c>
     </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1852,8 +1915,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1905,114 +1971,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>217000</v>
+      </c>
+      <c r="E32" s="3">
         <v>364000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>108000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>113000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>605000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-52000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>38000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>10000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-41000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>27000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>130000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>295000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>72000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>175000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>41000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>140000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>71000</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>6457000</v>
+      </c>
+      <c r="E33" s="3">
         <v>21457000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>9443000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>7428000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>3876000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>7956000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>4868000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>4542000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>3764000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1231000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2015000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2686000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>3204000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-716000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-5669000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-2355000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>4265000</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2064,119 +2139,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>6457000</v>
+      </c>
+      <c r="E35" s="3">
         <v>21457000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>9443000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>7428000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>3876000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>7956000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>4868000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>4542000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>3764000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1231000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2015000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2686000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>3204000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-716000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-5669000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-2355000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>4265000</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42551</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42369</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42185</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2196,8 +2280,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2217,485 +2302,513 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>9605000</v>
+      </c>
+      <c r="E41" s="3">
         <v>17236000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>12366000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>15246000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>9291000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>13426000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>14321000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>15613000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>15575000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>15871000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>12322000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>14153000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>13987000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>10319000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>10626000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>6753000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>6130000</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>475000</v>
+      </c>
+      <c r="E42" s="3">
         <v>629000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>264000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>230000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>227000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>84000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>54000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>87000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>237000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>200000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>51000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>72000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>103000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>121000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>75000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>83000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>81000</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4962000</v>
+      </c>
+      <c r="E43" s="3">
         <v>5689000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>5138000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>6338000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>4868000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>3730000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>3732000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>3586000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>6487000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3202000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3639000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3031000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3781000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3722000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3579000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>4979000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>6214000</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>4912000</v>
+      </c>
+      <c r="E44" s="3">
         <v>4935000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>4514000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>4426000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>4511000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>4101000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>3939000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>3840000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3972000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3764000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>4020000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3673000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3499000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3411000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3914000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>4292000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>6149000</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>149000</v>
+      </c>
+      <c r="E45" s="3">
         <v>175000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>17391000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>453000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>113000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>130000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>200000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>247000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>136000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>12093000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>111000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>127000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>131000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>141000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>189000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>262000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>327000</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>20103000</v>
+      </c>
+      <c r="E46" s="3">
         <v>28664000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>39673000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>26693000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>19010000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>21471000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>22246000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>23373000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>26407000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>35130000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>20143000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>21056000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>21501000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>17714000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>18383000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>16369000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>18901000</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2585000</v>
+      </c>
+      <c r="E47" s="3">
         <v>2375000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>2875000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>3689000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>4633000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>5374000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>4156000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>4185000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3663000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>3652000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>4276000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>4532000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>4460000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>6122000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>5054000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>6370000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>7416000</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>62178000</v>
+      </c>
+      <c r="E48" s="3">
         <v>61295000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>60433000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>73813000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>73711000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>72362000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>70196000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>68041000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>66673000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>67182000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>78849000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>80497000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>82170000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>83975000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>85439000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>94072000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>108771000</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1397000</v>
+      </c>
+      <c r="E49" s="3">
         <v>1369000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1332000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1437000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1508000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1574000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>670000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>675000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>718000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>778000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3873000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>3968000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>4030000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>4119000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>4214000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>4292000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>5289000</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2747,8 +2860,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2800,61 +2916,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1561000</v>
+      </c>
+      <c r="E52" s="3">
         <v>1463000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1412000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>3295000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>4371000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>4952000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>5022000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>4587000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>4953000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>5251000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>5441000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>6953000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>7374000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>7023000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>5579000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>3477000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>5704000</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2906,61 +3028,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>87824000</v>
+      </c>
+      <c r="E54" s="3">
         <v>95166000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>105725000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>108927000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>103233000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>105733000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>102290000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>100861000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>102414000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>111993000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>112582000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>117006000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>119535000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>118953000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>118669000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>124580000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>146081000</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2980,8 +3108,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3001,326 +3130,345 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4882000</v>
+      </c>
+      <c r="E57" s="3">
         <v>6687000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4570000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>7027000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>5663000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>5767000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>5798000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>6717000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5616000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>5977000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>5999000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>5551000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>5128000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>5389000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>5678000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>7389000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>8338000</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2015000</v>
+      </c>
+      <c r="E58" s="3">
         <v>2622000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>3054000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>2628000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>3560000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>10024000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>4273000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1661000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1527000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2736000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2033000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1241000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3374000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>4653000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>4071000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3201000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>2459000</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4992000</v>
+      </c>
+      <c r="E59" s="3">
         <v>7610000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>12995000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>6748000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4138000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4045000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3691000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3961000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3225000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>5276000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3498000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4574000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3497000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2298000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1889000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2263000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2553000</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>11889000</v>
+      </c>
+      <c r="E60" s="3">
         <v>16919000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>20619000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>16403000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>13361000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>14824000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>13762000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>12339000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>10368000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>13989000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>11530000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>11366000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>11999000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>12340000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>11638000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>12853000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>13350000</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>12686000</v>
+      </c>
+      <c r="E61" s="3">
         <v>13806000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>15897000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>18355000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>19159000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>22036000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>22535000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>23167000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>23938000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>24069000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>25700000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>29233000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>30670000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>31768000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>32476000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>27969000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>28610000</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>16697000</v>
+      </c>
+      <c r="E62" s="3">
         <v>15675000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>14287000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>18564000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>17290000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>16698000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>13575000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>13531000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>12792000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>13265000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>13191000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>13681000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>14441000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>14774000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>13125000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>13213000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>17871000</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3372,8 +3520,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3425,8 +3576,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3478,61 +3632,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>45223000</v>
+      </c>
+      <c r="E66" s="3">
         <v>50209000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>54938000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>57663000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>54311000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>57868000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>54168000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>53621000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>51767000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>56401000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>55605000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>59748000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>62886000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>64663000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>62883000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>59812000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>66236000</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3552,8 +3712,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3605,8 +3766,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3658,8 +3822,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3711,8 +3878,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3764,61 +3934,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>37884000</v>
+      </c>
+      <c r="E72" s="3">
         <v>40350000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>48454000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>49129000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>46784000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>45702000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>45968000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>45104000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>48495000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>53354000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>54742000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>55018000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>54417000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>52080000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>53585000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>62601000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>77832000</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3870,8 +4046,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3923,8 +4102,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3976,61 +4158,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>42601000</v>
+      </c>
+      <c r="E76" s="3">
         <v>44957000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>50787000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>51264000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>48922000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>47865000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>48122000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>47240000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>50647000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>55592000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>56977000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>57258000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>56649000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>54290000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>55786000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>64768000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>79845000</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4082,119 +4270,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42551</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42369</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42185</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>6457000</v>
+      </c>
+      <c r="E81" s="3">
         <v>21457000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>9443000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>7428000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>3876000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>7956000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>4868000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>4542000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>3764000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1231000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2015000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2686000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>3204000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-716000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-5669000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-2355000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>4265000</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4214,61 +4411,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2456000</v>
+      </c>
+      <c r="E83" s="3">
         <v>2832000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>2851000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>3579000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>3245000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>6112000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>3014000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>2941000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2888000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>2251000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>4037000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>3919000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>3800000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>4059000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>4602000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>4757000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>4401000</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4320,8 +4521,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4373,8 +4577,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4426,8 +4633,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4479,8 +4689,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4532,61 +4745,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>6770000</v>
+      </c>
+      <c r="E89" s="3">
         <v>18897000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>13277000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>17865000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>9369000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>15706000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>7442000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>10597000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>7274000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>11118000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>7343000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>9107000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>7697000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>5365000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>5260000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>8873000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>10423000</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4606,61 +4825,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-156000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-146000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-110000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-233000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-281000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-740000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-390000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-476000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-397000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-410000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-464000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-527000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-439000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-342000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-410000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>807000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-13668000</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4712,8 +4935,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4765,61 +4991,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3289000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-3370000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-3589000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-3636000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-4209000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-7616000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-3732000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-723000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>3330000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-3475000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2446000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2239000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1922000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-3207000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-4038000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-6837000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-6317000</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4839,61 +5071,65 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-8660000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-7822000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-10029000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-5134000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-2767000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-6876000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-3934000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-7984000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-3411000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-2944000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-2276000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-2173000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-748000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-864000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-3266000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-3289000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-3209000</v>
       </c>
     </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4945,8 +5181,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4998,8 +5237,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5051,163 +5293,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-10911000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-10261000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-12506000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-8327000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-9595000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-9752000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-5000000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-9430000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-11098000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-3832000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-7059000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-7009000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-2124000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-2454000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>2738000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1517000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-6759000</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-201000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-396000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-62000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>53000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>300000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-505000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>18000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>50000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-220000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-275000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>331000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>321000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>1000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-10000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>9000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-24000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>19000</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-7631000</v>
+      </c>
+      <c r="E102" s="3">
         <v>4870000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-2880000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>5955000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-4135000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-2167000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1272000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>494000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-714000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>3536000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1831000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>180000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>3652000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-306000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>3969000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>495000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-2634000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BHP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BHP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="92">
   <si>
     <t>BHP</t>
   </si>
@@ -1048,14 +1048,14 @@
       <c r="E14" s="3">
         <v>-844000</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>5</v>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3">
         <v>-46000</v>
       </c>
       <c r="H14" s="3">
-        <v>0</v>
+        <v>395000</v>
       </c>
       <c r="I14" s="3">
         <v>-489000</v>
@@ -1186,7 +1186,7 @@
         <v>17251000</v>
       </c>
       <c r="H17" s="3">
-        <v>14155000</v>
+        <v>14550000</v>
       </c>
       <c r="I17" s="3">
         <v>25241000</v>
@@ -1242,7 +1242,7 @@
         <v>15626000</v>
       </c>
       <c r="H18" s="3">
-        <v>9889000</v>
+        <v>9494000</v>
       </c>
       <c r="I18" s="3">
         <v>13683000</v>
@@ -1320,7 +1320,7 @@
         <v>-113000</v>
       </c>
       <c r="H20" s="3">
-        <v>-605000</v>
+        <v>-210000</v>
       </c>
       <c r="I20" s="3">
         <v>52000</v>
@@ -1992,7 +1992,7 @@
         <v>113000</v>
       </c>
       <c r="H32" s="3">
-        <v>605000</v>
+        <v>210000</v>
       </c>
       <c r="I32" s="3">
         <v>-52000</v>
@@ -4832,25 +4832,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-156000</v>
+        <v>-3027000</v>
       </c>
       <c r="E91" s="3">
-        <v>-146000</v>
+        <v>-3233000</v>
       </c>
       <c r="F91" s="3">
-        <v>-110000</v>
+        <v>-2878000</v>
       </c>
       <c r="G91" s="3">
-        <v>-233000</v>
+        <v>-3506000</v>
       </c>
       <c r="H91" s="3">
-        <v>-281000</v>
+        <v>-3614000</v>
       </c>
       <c r="I91" s="3">
-        <v>-740000</v>
+        <v>-3845000</v>
       </c>
       <c r="J91" s="3">
-        <v>-390000</v>
+        <v>-3795000</v>
       </c>
       <c r="K91" s="3">
         <v>-476000</v>

--- a/AAII_Financials/Quarterly/BHP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BHP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="92">
   <si>
     <t>BHP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,134 +665,141 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="20" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="21" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42551</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42369</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42185</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>28104000</v>
+      </c>
+      <c r="E8" s="3">
         <v>25713000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>34571000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>30527000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>32877000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>24044000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>38924000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>22294000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>23546000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>20742000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>22603000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>20526000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>16944000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>18796000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>12855000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>15712000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>19776000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>24860000</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -847,8 +854,11 @@
       <c r="T9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -903,8 +913,11 @@
       <c r="T10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -925,8 +938,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -981,8 +995,11 @@
       <c r="T12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1037,35 +1054,38 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="3">
+      <c r="D14" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="3">
         <v>-844000</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>-46000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>395000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-489000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>40000</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>5</v>
       </c>
@@ -1081,8 +1101,8 @@
       <c r="P14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
@@ -1093,8 +1113,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1149,8 +1172,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1168,120 +1194,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>16005000</v>
+      </c>
+      <c r="E17" s="3">
         <v>14880000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>15310000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>15682000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>17251000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>14550000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>25241000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>13980000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>14766000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>13409000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>13772000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>13361000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>10447000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>12739000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3021000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>22742000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>19036000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>16930000</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>12099000</v>
+      </c>
+      <c r="E18" s="3">
         <v>10833000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>19261000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>14845000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>15626000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>9494000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>13683000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>8314000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>8780000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>7333000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>8831000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>7165000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>6497000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>6057000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>9834000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-7030000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>740000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>7930000</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1302,288 +1335,304 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-458000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-217000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-364000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-108000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-113000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-210000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>52000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-38000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-10000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>41000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-27000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-130000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-295000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-72000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-175000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-41000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-140000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-71000</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>14246000</v>
+      </c>
+      <c r="E21" s="3">
         <v>13072000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>21729000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>17588000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>19092000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>12529000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>19847000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>11290000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>11711000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>10262000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>11886000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>10241000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>8586000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>9785000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>11267000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-2469000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>5357000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>12260000</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>421000</v>
+      </c>
+      <c r="E22" s="3">
         <v>435000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>253000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>244000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>234000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>271000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>910000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>486000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>521000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>574000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>560000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>528000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>545000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>505000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>409000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>388000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>240000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>163000</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>11220000</v>
+      </c>
+      <c r="E23" s="3">
         <v>10181000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>18644000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>14493000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>15279000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>9013000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>12825000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>7790000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>8249000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>6800000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>8244000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>6507000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>5657000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>5480000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>9250000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-7459000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>360000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>7696000</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>4022000</v>
+      </c>
+      <c r="E24" s="3">
         <v>3055000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>5778000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>4959000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>6623000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>3993000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>4197000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>2600000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>3171000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>2358000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>2906000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1781000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>2415000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>2028000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>3829000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-1726000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>362000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>3304000</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1638,120 +1687,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>7198000</v>
+      </c>
+      <c r="E26" s="3">
         <v>7126000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>12866000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>9534000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>8656000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>5020000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>8628000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>5190000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>5078000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>4442000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>5338000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>4726000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>3242000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>3452000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>5421000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-5733000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-2000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>4392000</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>6464000</v>
+      </c>
+      <c r="E27" s="3">
         <v>6457000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>11774000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>8471000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>7461000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>4068000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>7848000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>4868000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>4584000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>4057000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>4779000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>4167000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>3158000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>3204000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>5179000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-5669000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-442000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>3864000</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1806,8 +1864,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1815,55 +1876,58 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
         <v>9683000</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>972000</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>-33000</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>-192000</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>108000</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>-42000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-293000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-6010000</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-2152000</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-472000</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R29" s="3">
         <v>-5895000</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
       <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
         <v>-1913000</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>401000</v>
       </c>
     </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1918,8 +1982,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1974,120 +2041,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>458000</v>
+      </c>
+      <c r="E32" s="3">
         <v>217000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>364000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>108000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>113000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>210000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-52000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>38000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>10000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-41000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>27000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>130000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>295000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>72000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>175000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>41000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>140000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>71000</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>6464000</v>
+      </c>
+      <c r="E33" s="3">
         <v>6457000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>21457000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>9443000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>7428000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>3876000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>7956000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>4868000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>4542000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>3764000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1231000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2015000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>2686000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>3204000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-716000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-5669000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-2355000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>4265000</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2142,125 +2218,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>6464000</v>
+      </c>
+      <c r="E35" s="3">
         <v>6457000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>21457000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>9443000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>7428000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>3876000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>7956000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>4868000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>4542000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>3764000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1231000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2015000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>2686000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>3204000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-716000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-5669000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-2355000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>4265000</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42551</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42369</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42185</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2281,8 +2366,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2303,512 +2389,540 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>12428000</v>
+      </c>
+      <c r="E41" s="3">
         <v>9605000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>17236000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>12366000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>15246000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>9291000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>13426000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>14321000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>15613000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>15575000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>15871000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>12322000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>14153000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>13987000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>10319000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>10626000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>6753000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>6130000</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>470000</v>
+      </c>
+      <c r="E42" s="3">
         <v>475000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>629000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>264000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>230000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>227000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>84000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>54000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>87000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>237000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>200000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>51000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>72000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>103000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>121000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>75000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>83000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>81000</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>5102000</v>
+      </c>
+      <c r="E43" s="3">
         <v>4962000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>5689000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>5138000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>6338000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>4868000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>3730000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>3732000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3586000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>6487000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3202000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3639000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3031000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3781000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3722000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>3579000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>4979000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>6214000</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>5220000</v>
+      </c>
+      <c r="E44" s="3">
         <v>4912000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>4935000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>4514000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>4426000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>4511000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>4101000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>3939000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3840000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3972000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3764000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>4020000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3673000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3499000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3411000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3914000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>4292000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>6149000</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>131000</v>
+      </c>
+      <c r="E45" s="3">
         <v>149000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>175000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>17391000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>453000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>113000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>130000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>200000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>247000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>136000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>12093000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>111000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>127000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>131000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>141000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>189000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>262000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>327000</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>23351000</v>
+      </c>
+      <c r="E46" s="3">
         <v>20103000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>28664000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>39673000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>26693000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>19010000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>21471000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>22246000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>23373000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>26407000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>35130000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>20143000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>21056000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>21501000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>17714000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>18383000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>16369000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>18901000</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2883000</v>
+      </c>
+      <c r="E47" s="3">
         <v>2585000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>2375000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>2875000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>3689000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>4633000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>5374000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>4156000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>4185000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>3663000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>3652000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>4276000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>4532000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>4460000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>6122000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>5054000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>6370000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>7416000</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>71818000</v>
+      </c>
+      <c r="E48" s="3">
         <v>62178000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>61295000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>60433000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>73813000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>73711000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>72362000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>70196000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>68041000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>66673000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>67182000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>78849000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>80497000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>82170000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>83975000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>85439000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>94072000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>108771000</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1610000</v>
+      </c>
+      <c r="E49" s="3">
         <v>1397000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1369000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1332000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1437000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1508000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1574000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>670000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>675000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>718000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>778000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>3873000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>3968000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>4030000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>4119000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>4214000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>4292000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>5289000</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2863,8 +2977,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2919,64 +3036,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1634000</v>
+      </c>
+      <c r="E52" s="3">
         <v>1561000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1463000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1412000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>3295000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>4371000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>4952000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>5022000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>4587000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>4953000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>5251000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>5441000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>6953000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>7374000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>7023000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>5579000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>3477000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>5704000</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3031,64 +3154,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>101296000</v>
+      </c>
+      <c r="E54" s="3">
         <v>87824000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>95166000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>105725000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>108927000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>103233000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>105733000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>102290000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>100861000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>102414000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>111993000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>112582000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>117006000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>119535000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>118953000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>118669000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>124580000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>146081000</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3109,8 +3238,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3131,344 +3261,363 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>6296000</v>
+      </c>
+      <c r="E57" s="3">
         <v>4882000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>6687000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>4570000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>7027000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>5663000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>5767000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>5798000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>6717000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>5616000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>5977000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>5999000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>5551000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>5128000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>5389000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>5678000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>7389000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>8338000</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>7173000</v>
+      </c>
+      <c r="E58" s="3">
         <v>2015000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2622000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>3054000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2628000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>3560000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>10024000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>4273000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1661000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1527000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2736000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2033000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1241000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3374000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>4653000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>4071000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>3201000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>2459000</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>5574000</v>
+      </c>
+      <c r="E59" s="3">
         <v>4992000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>7610000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>12995000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>6748000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4138000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4045000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3691000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3961000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3225000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>5276000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3498000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>4574000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3497000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2298000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1889000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2263000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2553000</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>19043000</v>
+      </c>
+      <c r="E60" s="3">
         <v>11889000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>16919000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>20619000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>16403000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>13361000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>14824000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>13762000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>12339000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>10368000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>13989000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>11530000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>11366000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>11999000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>12340000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>11638000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>12853000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>13350000</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>15172000</v>
+      </c>
+      <c r="E61" s="3">
         <v>12686000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>13806000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>15897000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>18355000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>19159000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>22036000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>22535000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>23167000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>23938000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>24069000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>25700000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>29233000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>30670000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>31768000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>32476000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>27969000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>28610000</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>18551000</v>
+      </c>
+      <c r="E62" s="3">
         <v>16697000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>15675000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>14287000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>18564000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>17290000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>16698000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>13575000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>13531000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>12792000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>13265000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>13191000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>13681000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>14441000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>14774000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>13125000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>13213000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>17871000</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3523,8 +3672,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3579,8 +3731,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3635,64 +3790,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>56800000</v>
+      </c>
+      <c r="E66" s="3">
         <v>45223000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>50209000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>54938000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>57663000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>54311000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>57868000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>54168000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>53621000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>51767000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>56401000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>55605000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>59748000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>62886000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>64663000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>62883000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>59812000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>66236000</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3713,8 +3874,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3769,8 +3931,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3825,8 +3990,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3881,8 +4049,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3937,64 +4108,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>39800000</v>
+      </c>
+      <c r="E72" s="3">
         <v>37884000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>40350000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>48454000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>49129000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>46784000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>45702000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>45968000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>45104000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>48495000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>53354000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>54742000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>55018000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>54417000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>52080000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>53585000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>62601000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>77832000</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4049,8 +4226,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4105,8 +4285,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4161,64 +4344,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>44496000</v>
+      </c>
+      <c r="E76" s="3">
         <v>42601000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>44957000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>50787000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>51264000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>48922000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>47865000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>48122000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>47240000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>50647000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>55592000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>56977000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>57258000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>56649000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>54290000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>55786000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>64768000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>79845000</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4273,125 +4462,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42551</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42369</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42185</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>6464000</v>
+      </c>
+      <c r="E81" s="3">
         <v>6457000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>21457000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>9443000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>7428000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>3876000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>7956000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>4868000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>4542000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>3764000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1231000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2015000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>2686000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>3204000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-716000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-5669000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-2355000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>4265000</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4412,64 +4610,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2605000</v>
+      </c>
+      <c r="E83" s="3">
         <v>2456000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>2832000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>2851000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>3579000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>3245000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>6112000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>3014000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2941000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>2888000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>2251000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>4037000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>3919000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>3800000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>4059000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>4602000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>4757000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>4401000</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4524,8 +4726,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4580,8 +4785,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4636,8 +4844,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4692,8 +4903,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4748,64 +4962,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>11931000</v>
+      </c>
+      <c r="E89" s="3">
         <v>6770000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>18897000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>13277000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>17865000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>9369000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>15706000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>7442000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>10597000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>7274000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>11118000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>7343000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>9107000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>7697000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>5365000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>5260000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>8873000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>10423000</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4826,64 +5046,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-4056000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3027000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-3233000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2878000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-3506000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-3614000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-3845000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-3795000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-476000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-397000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-410000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-464000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-527000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-439000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-342000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-410000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>807000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-13668000</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4938,8 +5162,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4994,64 +5221,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-9776000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-3289000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-3370000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-3589000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-3636000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-4209000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-7616000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-3732000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-723000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>3330000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-3475000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2446000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2239000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1922000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-3207000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-4038000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-6837000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-6317000</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5072,64 +5305,68 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-4608000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-8660000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-7822000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-10029000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-5134000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-2767000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-6876000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-3934000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-7984000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-3411000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-2944000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-2276000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-2173000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-748000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-864000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-3266000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-3289000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-3209000</v>
       </c>
     </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5184,8 +5421,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5240,8 +5480,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5296,172 +5539,184 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>596000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-10911000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-10261000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-12506000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-8327000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-9595000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-9752000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-5000000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-9430000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-11098000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-3832000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-7059000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-7009000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-2124000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-2454000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>2738000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1517000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-6759000</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>67000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-201000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-396000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-62000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>53000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>300000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-505000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>18000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>50000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-220000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-275000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>331000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>321000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>1000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-10000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>9000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-24000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>19000</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>2818000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-7631000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>4870000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-2880000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>5955000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-4135000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-2167000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1272000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>494000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-714000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>3536000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1831000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>180000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>3652000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-306000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>3969000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>495000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-2634000</v>
       </c>
     </row>
